--- a/DB/GOODS.xlsx
+++ b/DB/GOODS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12495"/>
+    <workbookView xWindow="360" yWindow="240" windowWidth="28035" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="566">
   <si>
     <t>상품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2203,6 +2203,82 @@
   </si>
   <si>
     <t>티스푼5set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참이슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참소주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국순당막걸리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오비맥주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아사히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이네켄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버드와이저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칭따오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기네스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은데이석류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은데이블루베리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순하리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카스캔맥주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이트캔맥주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카스병맥주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이트병맥주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카스피처맥주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이트피처맥주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2577,8 +2653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
-      <selection activeCell="G540" sqref="G540"/>
+    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
+      <selection activeCell="E541" sqref="E541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2599,26 +2675,39 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2637,7 +2726,7 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="3" t="str">
@@ -2668,7 +2757,7 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="3" t="str">
@@ -2699,7 +2788,7 @@
       <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="3" t="str">
@@ -2730,7 +2819,7 @@
       <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="3" t="str">
@@ -2761,7 +2850,7 @@
       <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="3" t="str">
@@ -2792,7 +2881,7 @@
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="3" t="str">
@@ -2823,7 +2912,7 @@
       <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="3" t="str">
@@ -2854,7 +2943,7 @@
       <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H11" s="3" t="str">
@@ -2885,7 +2974,7 @@
       <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="3" t="str">
@@ -2916,7 +3005,7 @@
       <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="3" t="str">
@@ -2947,7 +3036,7 @@
       <c r="F14" s="2">
         <v>1</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="3" t="str">
@@ -2978,7 +3067,7 @@
       <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H15" s="3" t="str">
@@ -3009,7 +3098,7 @@
       <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H16" s="3" t="str">
@@ -3040,7 +3129,7 @@
       <c r="F17" s="2">
         <v>1</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H17" s="3" t="str">
@@ -3071,7 +3160,7 @@
       <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H18" s="3" t="str">
@@ -3102,7 +3191,7 @@
       <c r="F19" s="2">
         <v>1</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H19" s="3" t="str">
@@ -3133,7 +3222,7 @@
       <c r="F20" s="2">
         <v>1</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H20" s="3" t="str">
@@ -3164,7 +3253,7 @@
       <c r="F21" s="2">
         <v>1</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H21" s="3" t="str">
@@ -3195,7 +3284,7 @@
       <c r="F22" s="2">
         <v>1</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H22" s="3" t="str">
@@ -3226,7 +3315,7 @@
       <c r="F23" s="2">
         <v>1</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H23" s="3" t="str">
@@ -3257,7 +3346,7 @@
       <c r="F24" s="2">
         <v>1</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H24" s="3" t="str">
@@ -3286,7 +3375,7 @@
       <c r="F25" s="2">
         <v>2</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H25" s="3" t="str">
@@ -3315,7 +3404,7 @@
       <c r="F26" s="2">
         <v>2</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H26" s="3" t="str">
@@ -3344,7 +3433,7 @@
       <c r="F27" s="2">
         <v>2</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H27" s="3" t="str">
@@ -3373,7 +3462,7 @@
       <c r="F28" s="2">
         <v>2</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H28" s="3" t="str">
@@ -3402,7 +3491,7 @@
       <c r="F29" s="2">
         <v>2</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H29" s="3" t="str">
@@ -3431,7 +3520,7 @@
       <c r="F30" s="2">
         <v>2</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H30" s="3" t="str">
@@ -3460,7 +3549,7 @@
       <c r="F31" s="2">
         <v>2</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H31" s="3" t="str">
@@ -3489,7 +3578,7 @@
       <c r="F32" s="2">
         <v>2</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H32" s="3" t="str">
@@ -3518,7 +3607,7 @@
       <c r="F33" s="2">
         <v>2</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H33" s="3" t="str">
@@ -3547,7 +3636,7 @@
       <c r="F34" s="2">
         <v>2</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H34" s="3" t="str">
@@ -3576,7 +3665,7 @@
       <c r="F35" s="2">
         <v>2</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H35" s="3" t="str">
@@ -3605,7 +3694,7 @@
       <c r="F36" s="2">
         <v>2</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H36" s="3" t="str">
@@ -3634,7 +3723,7 @@
       <c r="F37" s="2">
         <v>2</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H37" s="3" t="str">
@@ -3663,7 +3752,7 @@
       <c r="F38" s="2">
         <v>2</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H38" s="3" t="str">
@@ -3692,7 +3781,7 @@
       <c r="F39" s="2">
         <v>2</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H39" s="3" t="str">
@@ -3721,7 +3810,7 @@
       <c r="F40" s="2">
         <v>2</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H40" s="3" t="str">
@@ -3750,7 +3839,7 @@
       <c r="F41" s="2">
         <v>2</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H41" s="3" t="str">
@@ -3779,7 +3868,7 @@
       <c r="F42" s="2">
         <v>2</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H42" s="3" t="str">
@@ -3808,7 +3897,7 @@
       <c r="F43" s="2">
         <v>2</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H43" s="3" t="str">
@@ -3837,7 +3926,7 @@
       <c r="F44" s="2">
         <v>2</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H44" s="3" t="str">
@@ -3866,7 +3955,7 @@
       <c r="F45" s="2">
         <v>3</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H45" s="3" t="str">
@@ -3895,7 +3984,7 @@
       <c r="F46" s="2">
         <v>3</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H46" s="3" t="str">
@@ -3924,7 +4013,7 @@
       <c r="F47" s="2">
         <v>3</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H47" s="3" t="str">
@@ -3953,7 +4042,7 @@
       <c r="F48" s="2">
         <v>3</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H48" s="3" t="str">
@@ -3982,7 +4071,7 @@
       <c r="F49" s="2">
         <v>3</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H49" s="3" t="str">
@@ -4011,7 +4100,7 @@
       <c r="F50" s="2">
         <v>3</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H50" s="3" t="str">
@@ -4040,7 +4129,7 @@
       <c r="F51" s="2">
         <v>3</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H51" s="3" t="str">
@@ -4069,7 +4158,7 @@
       <c r="F52" s="2">
         <v>3</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H52" s="3" t="str">
@@ -4098,7 +4187,7 @@
       <c r="F53" s="2">
         <v>3</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H53" s="3" t="str">
@@ -4127,7 +4216,7 @@
       <c r="F54" s="2">
         <v>3</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H54" s="3" t="str">
@@ -4156,7 +4245,7 @@
       <c r="F55" s="2">
         <v>3</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H55" s="3" t="str">
@@ -4185,7 +4274,7 @@
       <c r="F56" s="2">
         <v>3</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H56" s="3" t="str">
@@ -4214,7 +4303,7 @@
       <c r="F57" s="2">
         <v>3</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H57" s="3" t="str">
@@ -4243,7 +4332,7 @@
       <c r="F58" s="2">
         <v>3</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H58" s="3" t="str">
@@ -4272,7 +4361,7 @@
       <c r="F59" s="2">
         <v>3</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H59" s="3" t="str">
@@ -4301,7 +4390,7 @@
       <c r="F60" s="2">
         <v>3</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H60" s="3" t="str">
@@ -4330,7 +4419,7 @@
       <c r="F61" s="2">
         <v>3</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H61" s="3" t="str">
@@ -4359,7 +4448,7 @@
       <c r="F62" s="2">
         <v>3</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H62" s="3" t="str">
@@ -4388,7 +4477,7 @@
       <c r="F63" s="2">
         <v>3</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H63" s="3" t="str">
@@ -4417,7 +4506,7 @@
       <c r="F64" s="2">
         <v>3</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H64" s="3" t="str">
@@ -4446,7 +4535,7 @@
       <c r="F65" s="2">
         <v>3</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H65" s="3" t="str">
@@ -4475,7 +4564,7 @@
       <c r="F66" s="2">
         <v>4</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H66" s="3" t="str">
@@ -4504,7 +4593,7 @@
       <c r="F67" s="2">
         <v>4</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H67" s="3" t="str">
@@ -4533,7 +4622,7 @@
       <c r="F68" s="2">
         <v>4</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H68" s="3" t="str">
@@ -4562,7 +4651,7 @@
       <c r="F69" s="2">
         <v>4</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H69" s="3" t="str">
@@ -4591,7 +4680,7 @@
       <c r="F70" s="2">
         <v>4</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H70" s="3" t="str">
@@ -4620,7 +4709,7 @@
       <c r="F71" s="2">
         <v>4</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H71" s="3" t="str">
@@ -4649,7 +4738,7 @@
       <c r="F72" s="2">
         <v>4</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H72" s="3" t="str">
@@ -4678,7 +4767,7 @@
       <c r="F73" s="2">
         <v>4</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H73" s="3" t="str">
@@ -4707,7 +4796,7 @@
       <c r="F74" s="2">
         <v>4</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H74" s="3" t="str">
@@ -4736,7 +4825,7 @@
       <c r="F75" s="2">
         <v>4</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H75" s="3" t="str">
@@ -4765,7 +4854,7 @@
       <c r="F76" s="2">
         <v>4</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H76" s="3" t="str">
@@ -4794,7 +4883,7 @@
       <c r="F77" s="2">
         <v>4</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H77" s="3" t="str">
@@ -4823,7 +4912,7 @@
       <c r="F78" s="2">
         <v>4</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H78" s="3" t="str">
@@ -4852,7 +4941,7 @@
       <c r="F79" s="2">
         <v>4</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H79" s="3" t="str">
@@ -4881,7 +4970,7 @@
       <c r="F80" s="2">
         <v>4</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H80" s="3" t="str">
@@ -4910,7 +4999,7 @@
       <c r="F81" s="2">
         <v>4</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H81" s="3" t="str">
@@ -4939,7 +5028,7 @@
       <c r="F82" s="2">
         <v>4</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H82" s="3" t="str">
@@ -4968,7 +5057,7 @@
       <c r="F83" s="2">
         <v>4</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H83" s="3" t="str">
@@ -4997,7 +5086,7 @@
       <c r="F84" s="2">
         <v>4</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H84" s="3" t="str">
@@ -5026,7 +5115,7 @@
       <c r="F85" s="2">
         <v>4</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H85" s="3" t="str">
@@ -5055,7 +5144,7 @@
       <c r="F86" s="2">
         <v>4</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H86" s="3" t="str">
@@ -5084,7 +5173,7 @@
       <c r="F87" s="2">
         <v>4</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H87" s="3" t="str">
@@ -5113,7 +5202,7 @@
       <c r="F88" s="2">
         <v>4</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H88" s="3" t="str">
@@ -5142,7 +5231,7 @@
       <c r="F89" s="2">
         <v>4</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H89" s="3" t="str">
@@ -5171,7 +5260,7 @@
       <c r="F90" s="2">
         <v>4</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H90" s="3" t="str">
@@ -5200,7 +5289,7 @@
       <c r="F91" s="2">
         <v>4</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H91" s="3" t="str">
@@ -5229,7 +5318,7 @@
       <c r="F92" s="2">
         <v>4</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H92" s="3" t="str">
@@ -5258,7 +5347,7 @@
       <c r="F93" s="2">
         <v>4</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H93" s="3" t="str">
@@ -5287,7 +5376,7 @@
       <c r="F94" s="2">
         <v>4</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H94" s="3" t="str">
@@ -5316,7 +5405,7 @@
       <c r="F95" s="2">
         <v>4</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H95" s="3" t="str">
@@ -5345,7 +5434,7 @@
       <c r="F96" s="2">
         <v>4</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H96" s="3" t="str">
@@ -5374,7 +5463,7 @@
       <c r="F97" s="2">
         <v>4</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H97" s="3" t="str">
@@ -5403,7 +5492,7 @@
       <c r="F98" s="2">
         <v>4</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H98" s="3" t="str">
@@ -5432,7 +5521,7 @@
       <c r="F99" s="2">
         <v>4</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H99" s="3" t="str">
@@ -5461,7 +5550,7 @@
       <c r="F100" s="2">
         <v>5</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H100" s="3" t="str">
@@ -5490,7 +5579,7 @@
       <c r="F101" s="2">
         <v>5</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H101" s="3" t="str">
@@ -5519,7 +5608,7 @@
       <c r="F102" s="2">
         <v>5</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H102" s="3" t="str">
@@ -5548,7 +5637,7 @@
       <c r="F103" s="2">
         <v>5</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H103" s="3" t="str">
@@ -5577,7 +5666,7 @@
       <c r="F104" s="2">
         <v>5</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H104" s="3" t="str">
@@ -5606,7 +5695,7 @@
       <c r="F105" s="2">
         <v>5</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H105" s="3" t="str">
@@ -5635,7 +5724,7 @@
       <c r="F106" s="2">
         <v>5</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H106" s="3" t="str">
@@ -5664,7 +5753,7 @@
       <c r="F107" s="2">
         <v>5</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H107" s="3" t="str">
@@ -5693,7 +5782,7 @@
       <c r="F108" s="2">
         <v>5</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H108" s="3" t="str">
@@ -5722,7 +5811,7 @@
       <c r="F109" s="2">
         <v>5</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H109" s="3" t="str">
@@ -5751,7 +5840,7 @@
       <c r="F110" s="2">
         <v>5</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H110" s="3" t="str">
@@ -5780,7 +5869,7 @@
       <c r="F111" s="2">
         <v>5</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H111" s="3" t="str">
@@ -5809,7 +5898,7 @@
       <c r="F112" s="2">
         <v>5</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H112" s="3" t="str">
@@ -5838,7 +5927,7 @@
       <c r="F113" s="2">
         <v>5</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H113" s="3" t="str">
@@ -5867,7 +5956,7 @@
       <c r="F114" s="2">
         <v>5</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H114" s="3" t="str">
@@ -5896,7 +5985,7 @@
       <c r="F115" s="2">
         <v>5</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H115" s="3" t="str">
@@ -5925,7 +6014,7 @@
       <c r="F116" s="2">
         <v>5</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H116" s="3" t="str">
@@ -5954,7 +6043,7 @@
       <c r="F117" s="2">
         <v>5</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H117" s="3" t="str">
@@ -5983,7 +6072,7 @@
       <c r="F118" s="2">
         <v>5</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H118" s="3" t="str">
@@ -6012,7 +6101,7 @@
       <c r="F119" s="2">
         <v>5</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H119" s="3" t="str">
@@ -6041,7 +6130,7 @@
       <c r="F120" s="2">
         <v>5</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H120" s="3" t="str">
@@ -6070,7 +6159,7 @@
       <c r="F121" s="2">
         <v>5</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H121" s="3" t="str">
@@ -6099,7 +6188,7 @@
       <c r="F122" s="2">
         <v>6</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H122" s="3" t="str">
@@ -6128,7 +6217,7 @@
       <c r="F123" s="2">
         <v>6</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H123" s="3" t="str">
@@ -6157,7 +6246,7 @@
       <c r="F124" s="2">
         <v>6</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H124" s="3" t="str">
@@ -6186,7 +6275,7 @@
       <c r="F125" s="2">
         <v>6</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H125" s="3" t="str">
@@ -6215,7 +6304,7 @@
       <c r="F126" s="2">
         <v>6</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H126" s="3" t="str">
@@ -6244,7 +6333,7 @@
       <c r="F127" s="2">
         <v>6</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H127" s="3" t="str">
@@ -6273,7 +6362,7 @@
       <c r="F128" s="2">
         <v>6</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H128" s="3" t="str">
@@ -6302,7 +6391,7 @@
       <c r="F129" s="2">
         <v>6</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H129" s="3" t="str">
@@ -6331,7 +6420,7 @@
       <c r="F130" s="2">
         <v>6</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H130" s="3" t="str">
@@ -6360,7 +6449,7 @@
       <c r="F131" s="2">
         <v>6</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H131" s="3" t="str">
@@ -6389,7 +6478,7 @@
       <c r="F132" s="2">
         <v>6</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H132" s="3" t="str">
@@ -6418,7 +6507,7 @@
       <c r="F133" s="2">
         <v>6</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H133" s="3" t="str">
@@ -6447,7 +6536,7 @@
       <c r="F134" s="2">
         <v>6</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H134" s="3" t="str">
@@ -6476,7 +6565,7 @@
       <c r="F135" s="2">
         <v>6</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H135" s="3" t="str">
@@ -6505,7 +6594,7 @@
       <c r="F136" s="2">
         <v>6</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H136" s="3" t="str">
@@ -6534,7 +6623,7 @@
       <c r="F137" s="2">
         <v>6</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H137" s="3" t="str">
@@ -6563,7 +6652,7 @@
       <c r="F138" s="2">
         <v>6</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H138" s="3" t="str">
@@ -6592,7 +6681,7 @@
       <c r="F139" s="2">
         <v>6</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H139" s="3" t="str">
@@ -6621,7 +6710,7 @@
       <c r="F140" s="2">
         <v>6</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H140" s="3" t="str">
@@ -6650,7 +6739,7 @@
       <c r="F141" s="2">
         <v>7</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H141" s="3" t="str">
@@ -6679,7 +6768,7 @@
       <c r="F142" s="2">
         <v>7</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H142" s="3" t="str">
@@ -6708,7 +6797,7 @@
       <c r="F143" s="2">
         <v>7</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H143" s="3" t="str">
@@ -6737,7 +6826,7 @@
       <c r="F144" s="2">
         <v>7</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H144" s="3" t="str">
@@ -6766,7 +6855,7 @@
       <c r="F145" s="2">
         <v>7</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H145" s="3" t="str">
@@ -6795,7 +6884,7 @@
       <c r="F146" s="2">
         <v>7</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H146" s="3" t="str">
@@ -6824,7 +6913,7 @@
       <c r="F147" s="2">
         <v>7</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H147" s="3" t="str">
@@ -6853,7 +6942,7 @@
       <c r="F148" s="2">
         <v>7</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G148" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H148" s="3" t="str">
@@ -6882,7 +6971,7 @@
       <c r="F149" s="2">
         <v>7</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G149" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H149" s="3" t="str">
@@ -6911,7 +7000,7 @@
       <c r="F150" s="2">
         <v>7</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H150" s="3" t="str">
@@ -6940,7 +7029,7 @@
       <c r="F151" s="2">
         <v>7</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G151" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H151" s="3" t="str">
@@ -6969,7 +7058,7 @@
       <c r="F152" s="2">
         <v>7</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G152" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H152" s="3" t="str">
@@ -6998,7 +7087,7 @@
       <c r="F153" s="2">
         <v>7</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G153" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H153" s="3" t="str">
@@ -7027,7 +7116,7 @@
       <c r="F154" s="2">
         <v>7</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H154" s="3" t="str">
@@ -7056,7 +7145,7 @@
       <c r="F155" s="2">
         <v>7</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G155" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H155" s="3" t="str">
@@ -7085,7 +7174,7 @@
       <c r="F156" s="2">
         <v>7</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G156" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H156" s="3" t="str">
@@ -7114,7 +7203,7 @@
       <c r="F157" s="2">
         <v>7</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G157" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H157" s="3" t="str">
@@ -7143,7 +7232,7 @@
       <c r="F158" s="2">
         <v>7</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H158" s="3" t="str">
@@ -7172,7 +7261,7 @@
       <c r="F159" s="2">
         <v>7</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G159" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H159" s="3" t="str">
@@ -7201,7 +7290,7 @@
       <c r="F160" s="2">
         <v>7</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G160" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H160" s="3" t="str">
@@ -7230,7 +7319,7 @@
       <c r="F161" s="2">
         <v>7</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H161" s="3" t="str">
@@ -7259,7 +7348,7 @@
       <c r="F162" s="2">
         <v>7</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G162" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H162" s="3" t="str">
@@ -7288,7 +7377,7 @@
       <c r="F163" s="2">
         <v>8</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G163" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H163" s="3" t="str">
@@ -7317,7 +7406,7 @@
       <c r="F164" s="2">
         <v>8</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G164" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H164" s="3" t="str">
@@ -7346,7 +7435,7 @@
       <c r="F165" s="2">
         <v>8</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G165" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H165" s="3" t="str">
@@ -7375,7 +7464,7 @@
       <c r="F166" s="2">
         <v>8</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G166" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H166" s="3" t="str">
@@ -7404,7 +7493,7 @@
       <c r="F167" s="2">
         <v>8</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G167" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H167" s="3" t="str">
@@ -7433,7 +7522,7 @@
       <c r="F168" s="2">
         <v>8</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G168" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H168" s="3" t="str">
@@ -7462,7 +7551,7 @@
       <c r="F169" s="2">
         <v>8</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G169" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H169" s="3" t="str">
@@ -7491,7 +7580,7 @@
       <c r="F170" s="2">
         <v>8</v>
       </c>
-      <c r="G170" t="s">
+      <c r="G170" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H170" s="3" t="str">
@@ -7520,7 +7609,7 @@
       <c r="F171" s="2">
         <v>8</v>
       </c>
-      <c r="G171" t="s">
+      <c r="G171" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H171" s="3" t="str">
@@ -7549,7 +7638,7 @@
       <c r="F172" s="2">
         <v>8</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G172" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H172" s="3" t="str">
@@ -7578,7 +7667,7 @@
       <c r="F173" s="2">
         <v>8</v>
       </c>
-      <c r="G173" t="s">
+      <c r="G173" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H173" s="3" t="str">
@@ -7607,7 +7696,7 @@
       <c r="F174" s="2">
         <v>8</v>
       </c>
-      <c r="G174" t="s">
+      <c r="G174" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H174" s="3" t="str">
@@ -7636,7 +7725,7 @@
       <c r="F175" s="2">
         <v>8</v>
       </c>
-      <c r="G175" t="s">
+      <c r="G175" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H175" s="3" t="str">
@@ -7665,7 +7754,7 @@
       <c r="F176" s="2">
         <v>8</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G176" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H176" s="3" t="str">
@@ -7694,7 +7783,7 @@
       <c r="F177" s="2">
         <v>8</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G177" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H177" s="3" t="str">
@@ -7723,7 +7812,7 @@
       <c r="F178" s="2">
         <v>8</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G178" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H178" s="3" t="str">
@@ -7752,7 +7841,7 @@
       <c r="F179" s="2">
         <v>8</v>
       </c>
-      <c r="G179" t="s">
+      <c r="G179" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H179" s="3" t="str">
@@ -7781,7 +7870,7 @@
       <c r="F180" s="2">
         <v>8</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G180" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H180" s="3" t="str">
@@ -7810,7 +7899,7 @@
       <c r="F181" s="2">
         <v>8</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G181" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H181" s="3" t="str">
@@ -7839,7 +7928,7 @@
       <c r="F182" s="2">
         <v>8</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G182" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H182" s="3" t="str">
@@ -7868,7 +7957,7 @@
       <c r="F183" s="2">
         <v>8</v>
       </c>
-      <c r="G183" t="s">
+      <c r="G183" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H183" s="3" t="str">
@@ -7897,7 +7986,7 @@
       <c r="F184" s="2">
         <v>8</v>
       </c>
-      <c r="G184" t="s">
+      <c r="G184" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H184" s="3" t="str">
@@ -7926,7 +8015,7 @@
       <c r="F185" s="2">
         <v>8</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G185" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H185" s="3" t="str">
@@ -7955,7 +8044,7 @@
       <c r="F186" s="2">
         <v>8</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G186" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H186" s="3" t="str">
@@ -7984,7 +8073,7 @@
       <c r="F187" s="2">
         <v>8</v>
       </c>
-      <c r="G187" t="s">
+      <c r="G187" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H187" s="3" t="str">
@@ -8013,7 +8102,7 @@
       <c r="F188" s="2">
         <v>8</v>
       </c>
-      <c r="G188" t="s">
+      <c r="G188" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H188" s="3" t="str">
@@ -8042,7 +8131,7 @@
       <c r="F189" s="2">
         <v>9</v>
       </c>
-      <c r="G189" t="s">
+      <c r="G189" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H189" s="3" t="str">
@@ -8071,7 +8160,7 @@
       <c r="F190" s="2">
         <v>9</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G190" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H190" s="3" t="str">
@@ -8100,7 +8189,7 @@
       <c r="F191" s="2">
         <v>9</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G191" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H191" s="3" t="str">
@@ -8129,7 +8218,7 @@
       <c r="F192" s="2">
         <v>9</v>
       </c>
-      <c r="G192" t="s">
+      <c r="G192" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H192" s="3" t="str">
@@ -8158,7 +8247,7 @@
       <c r="F193" s="2">
         <v>9</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G193" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H193" s="3" t="str">
@@ -8187,7 +8276,7 @@
       <c r="F194" s="2">
         <v>9</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G194" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H194" s="3" t="str">
@@ -8216,7 +8305,7 @@
       <c r="F195" s="2">
         <v>9</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G195" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H195" s="3" t="str">
@@ -8245,7 +8334,7 @@
       <c r="F196" s="2">
         <v>9</v>
       </c>
-      <c r="G196" t="s">
+      <c r="G196" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H196" s="3" t="str">
@@ -8274,7 +8363,7 @@
       <c r="F197" s="2">
         <v>9</v>
       </c>
-      <c r="G197" t="s">
+      <c r="G197" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H197" s="3" t="str">
@@ -8303,7 +8392,7 @@
       <c r="F198" s="2">
         <v>9</v>
       </c>
-      <c r="G198" t="s">
+      <c r="G198" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H198" s="3" t="str">
@@ -8332,7 +8421,7 @@
       <c r="F199" s="2">
         <v>9</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G199" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H199" s="3" t="str">
@@ -8361,7 +8450,7 @@
       <c r="F200" s="2">
         <v>9</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G200" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H200" s="3" t="str">
@@ -8390,7 +8479,7 @@
       <c r="F201" s="2">
         <v>9</v>
       </c>
-      <c r="G201" t="s">
+      <c r="G201" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H201" s="3" t="str">
@@ -8419,7 +8508,7 @@
       <c r="F202" s="2">
         <v>9</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G202" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H202" s="3" t="str">
@@ -8448,7 +8537,7 @@
       <c r="F203" s="2">
         <v>9</v>
       </c>
-      <c r="G203" t="s">
+      <c r="G203" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H203" s="3" t="str">
@@ -8477,7 +8566,7 @@
       <c r="F204" s="2">
         <v>9</v>
       </c>
-      <c r="G204" t="s">
+      <c r="G204" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H204" s="3" t="str">
@@ -8506,7 +8595,7 @@
       <c r="F205" s="2">
         <v>9</v>
       </c>
-      <c r="G205" t="s">
+      <c r="G205" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H205" s="3" t="str">
@@ -8535,7 +8624,7 @@
       <c r="F206" s="2">
         <v>9</v>
       </c>
-      <c r="G206" t="s">
+      <c r="G206" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H206" s="3" t="str">
@@ -8564,7 +8653,7 @@
       <c r="F207" s="2">
         <v>9</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G207" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H207" s="3" t="str">
@@ -8593,7 +8682,7 @@
       <c r="F208" s="2">
         <v>9</v>
       </c>
-      <c r="G208" t="s">
+      <c r="G208" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H208" s="3" t="str">
@@ -8622,7 +8711,7 @@
       <c r="F209" s="2">
         <v>9</v>
       </c>
-      <c r="G209" t="s">
+      <c r="G209" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H209" s="3" t="str">
@@ -8651,7 +8740,7 @@
       <c r="F210" s="2">
         <v>9</v>
       </c>
-      <c r="G210" t="s">
+      <c r="G210" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H210" s="3" t="str">
@@ -8680,7 +8769,7 @@
       <c r="F211" s="2">
         <v>9</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G211" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H211" s="3" t="str">
@@ -8709,7 +8798,7 @@
       <c r="F212" s="2">
         <v>9</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G212" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H212" s="3" t="str">
@@ -8738,7 +8827,7 @@
       <c r="F213" s="2">
         <v>9</v>
       </c>
-      <c r="G213" t="s">
+      <c r="G213" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H213" s="3" t="str">
@@ -8767,7 +8856,7 @@
       <c r="F214" s="2">
         <v>9</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G214" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H214" s="3" t="str">
@@ -8796,7 +8885,7 @@
       <c r="F215" s="2">
         <v>9</v>
       </c>
-      <c r="G215" t="s">
+      <c r="G215" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H215" s="3" t="str">
@@ -8825,7 +8914,7 @@
       <c r="F216" s="2">
         <v>9</v>
       </c>
-      <c r="G216" t="s">
+      <c r="G216" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H216" s="3" t="str">
@@ -8854,7 +8943,7 @@
       <c r="F217" s="2">
         <v>9</v>
       </c>
-      <c r="G217" t="s">
+      <c r="G217" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H217" s="3" t="str">
@@ -8883,7 +8972,7 @@
       <c r="F218" s="2">
         <v>9</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G218" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H218" s="3" t="str">
@@ -8912,7 +9001,7 @@
       <c r="F219" s="2">
         <v>9</v>
       </c>
-      <c r="G219" t="s">
+      <c r="G219" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H219" s="3" t="str">
@@ -8941,7 +9030,7 @@
       <c r="F220" s="2">
         <v>9</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G220" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H220" s="3" t="str">
@@ -8970,7 +9059,7 @@
       <c r="F221" s="2">
         <v>9</v>
       </c>
-      <c r="G221" t="s">
+      <c r="G221" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H221" s="3" t="str">
@@ -8999,7 +9088,7 @@
       <c r="F222" s="2">
         <v>9</v>
       </c>
-      <c r="G222" t="s">
+      <c r="G222" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H222" s="3" t="str">
@@ -9028,7 +9117,7 @@
       <c r="F223" s="2">
         <v>9</v>
       </c>
-      <c r="G223" t="s">
+      <c r="G223" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H223" s="3" t="str">
@@ -9057,7 +9146,7 @@
       <c r="F224" s="2">
         <v>9</v>
       </c>
-      <c r="G224" t="s">
+      <c r="G224" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H224" s="3" t="str">
@@ -9086,7 +9175,7 @@
       <c r="F225" s="2">
         <v>9</v>
       </c>
-      <c r="G225" t="s">
+      <c r="G225" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H225" s="3" t="str">
@@ -9115,7 +9204,7 @@
       <c r="F226" s="2">
         <v>9</v>
       </c>
-      <c r="G226" t="s">
+      <c r="G226" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H226" s="3" t="str">
@@ -9144,7 +9233,7 @@
       <c r="F227" s="2">
         <v>9</v>
       </c>
-      <c r="G227" t="s">
+      <c r="G227" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H227" s="3" t="str">
@@ -9173,7 +9262,7 @@
       <c r="F228" s="2">
         <v>9</v>
       </c>
-      <c r="G228" t="s">
+      <c r="G228" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H228" s="3" t="str">
@@ -9202,7 +9291,7 @@
       <c r="F229" s="2">
         <v>9</v>
       </c>
-      <c r="G229" t="s">
+      <c r="G229" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H229" s="3" t="str">
@@ -9229,14 +9318,14 @@
       </c>
       <c r="E230" s="2"/>
       <c r="F230" s="2">
-        <v>10</v>
-      </c>
-      <c r="G230" t="s">
+        <v>7</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H230" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(227,'코카콜라캔','1110','4320','','10')</v>
+        <v>insert into GOODS values(227,'코카콜라캔','1110','4320','','7')</v>
       </c>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
@@ -9258,14 +9347,14 @@
       </c>
       <c r="E231" s="2"/>
       <c r="F231" s="2">
-        <v>10</v>
-      </c>
-      <c r="G231" t="s">
+        <v>7</v>
+      </c>
+      <c r="G231" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H231" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(228,'칠성사이다','1140','4000','','10')</v>
+        <v>insert into GOODS values(228,'칠성사이다','1140','4000','','7')</v>
       </c>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
@@ -9287,14 +9376,14 @@
       </c>
       <c r="E232" s="2"/>
       <c r="F232" s="2">
-        <v>10</v>
-      </c>
-      <c r="G232" t="s">
+        <v>7</v>
+      </c>
+      <c r="G232" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H232" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(229,'게토레이레몬','1500','2500','','10')</v>
+        <v>insert into GOODS values(229,'게토레이레몬','1500','2500','','7')</v>
       </c>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
@@ -9316,14 +9405,14 @@
       </c>
       <c r="E233" s="2"/>
       <c r="F233" s="2">
-        <v>10</v>
-      </c>
-      <c r="G233" t="s">
+        <v>7</v>
+      </c>
+      <c r="G233" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H233" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(230,'델몬트오렌지','1800','4280','','10')</v>
+        <v>insert into GOODS values(230,'델몬트오렌지','1800','4280','','7')</v>
       </c>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
@@ -9345,14 +9434,14 @@
       </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2">
-        <v>10</v>
-      </c>
-      <c r="G234" t="s">
+        <v>7</v>
+      </c>
+      <c r="G234" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H234" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(231,'환타오렌지캔','1110','4320','','10')</v>
+        <v>insert into GOODS values(231,'환타오렌지캔','1110','4320','','7')</v>
       </c>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
@@ -9374,14 +9463,14 @@
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2">
-        <v>10</v>
-      </c>
-      <c r="G235" t="s">
+        <v>7</v>
+      </c>
+      <c r="G235" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H235" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(232,'검은콩두유','3900','14900','','10')</v>
+        <v>insert into GOODS values(232,'검은콩두유','3900','14900','','7')</v>
       </c>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
@@ -9403,14 +9492,14 @@
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2">
-        <v>10</v>
-      </c>
-      <c r="G236" t="s">
+        <v>7</v>
+      </c>
+      <c r="G236" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H236" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(233,'맥심TOP마스터라떼','1200','5500','','10')</v>
+        <v>insert into GOODS values(233,'맥심TOP마스터라떼','1200','5500','','7')</v>
       </c>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
@@ -9432,14 +9521,14 @@
       </c>
       <c r="E237" s="2"/>
       <c r="F237" s="2">
-        <v>10</v>
-      </c>
-      <c r="G237" t="s">
+        <v>7</v>
+      </c>
+      <c r="G237" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H237" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(234,'현미아침햇살','1500','3450','','10')</v>
+        <v>insert into GOODS values(234,'현미아침햇살','1500','3450','','7')</v>
       </c>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
@@ -9461,14 +9550,14 @@
       </c>
       <c r="E238" s="2"/>
       <c r="F238" s="2">
-        <v>10</v>
-      </c>
-      <c r="G238" t="s">
+        <v>7</v>
+      </c>
+      <c r="G238" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H238" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(235,'게토레이블루볼트','1500','2500','','10')</v>
+        <v>insert into GOODS values(235,'게토레이블루볼트','1500','2500','','7')</v>
       </c>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
@@ -9490,14 +9579,14 @@
       </c>
       <c r="E239" s="2"/>
       <c r="F239" s="2">
-        <v>10</v>
-      </c>
-      <c r="G239" t="s">
+        <v>7</v>
+      </c>
+      <c r="G239" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H239" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(236,'솔의눈','1440','4280','','10')</v>
+        <v>insert into GOODS values(236,'솔의눈','1440','4280','','7')</v>
       </c>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
@@ -9519,14 +9608,14 @@
       </c>
       <c r="E240" s="2"/>
       <c r="F240" s="2">
-        <v>10</v>
-      </c>
-      <c r="G240" t="s">
+        <v>7</v>
+      </c>
+      <c r="G240" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H240" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(237,'검은콩고칼슘두유','3040','16900','','10')</v>
+        <v>insert into GOODS values(237,'검은콩고칼슘두유','3040','16900','','7')</v>
       </c>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
@@ -9548,14 +9637,14 @@
       </c>
       <c r="E241" s="2"/>
       <c r="F241" s="2">
-        <v>10</v>
-      </c>
-      <c r="G241" t="s">
+        <v>7</v>
+      </c>
+      <c r="G241" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H241" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(238,'알로에농장','1500','3450','','10')</v>
+        <v>insert into GOODS values(238,'알로에농장','1500','3450','','7')</v>
       </c>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
@@ -9577,14 +9666,14 @@
       </c>
       <c r="E242" s="2"/>
       <c r="F242" s="2">
-        <v>10</v>
-      </c>
-      <c r="G242" t="s">
+        <v>7</v>
+      </c>
+      <c r="G242" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H242" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(239,'미닌메이드자몽','1200','3800','','10')</v>
+        <v>insert into GOODS values(239,'미닌메이드자몽','1200','3800','','7')</v>
       </c>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
@@ -9606,14 +9695,14 @@
       </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2">
-        <v>10</v>
-      </c>
-      <c r="G243" t="s">
+        <v>7</v>
+      </c>
+      <c r="G243" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H243" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(240,'델몬트매실','1500','2880','','10')</v>
+        <v>insert into GOODS values(240,'델몬트매실','1500','2880','','7')</v>
       </c>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
@@ -9635,14 +9724,14 @@
       </c>
       <c r="E244" s="2"/>
       <c r="F244" s="2">
-        <v>10</v>
-      </c>
-      <c r="G244" t="s">
+        <v>7</v>
+      </c>
+      <c r="G244" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H244" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(241,'토마토농장','1500','3450','','10')</v>
+        <v>insert into GOODS values(241,'토마토농장','1500','3450','','7')</v>
       </c>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
@@ -9664,14 +9753,14 @@
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="2">
-        <v>10</v>
-      </c>
-      <c r="G245" t="s">
+        <v>7</v>
+      </c>
+      <c r="G245" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H245" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(242,'TOP스위트아메리카','1200','5500','','10')</v>
+        <v>insert into GOODS values(242,'TOP스위트아메리카','1200','5500','','7')</v>
       </c>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
@@ -9693,14 +9782,14 @@
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="2">
-        <v>10</v>
-      </c>
-      <c r="G246" t="s">
+        <v>7</v>
+      </c>
+      <c r="G246" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H246" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(243,'밀키스','500','1000','','10')</v>
+        <v>insert into GOODS values(243,'밀키스','500','1000','','7')</v>
       </c>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
@@ -9722,14 +9811,14 @@
       </c>
       <c r="E247" s="2"/>
       <c r="F247" s="2">
-        <v>10</v>
-      </c>
-      <c r="G247" t="s">
+        <v>7</v>
+      </c>
+      <c r="G247" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H247" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(244,'초찬탄산수라임','500','1000','','10')</v>
+        <v>insert into GOODS values(244,'초찬탄산수라임','500','1000','','7')</v>
       </c>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
@@ -9751,14 +9840,14 @@
       </c>
       <c r="E248" s="2"/>
       <c r="F248" s="2">
-        <v>10</v>
-      </c>
-      <c r="G248" t="s">
+        <v>7</v>
+      </c>
+      <c r="G248" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H248" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(245,'초청탄산수자몽','500','1000','','10')</v>
+        <v>insert into GOODS values(245,'초청탄산수자몽','500','1000','','7')</v>
       </c>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
@@ -9780,14 +9869,14 @@
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2">
-        <v>10</v>
-      </c>
-      <c r="G249" t="s">
+        <v>7</v>
+      </c>
+      <c r="G249" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H249" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(246,'썬키스트자몽소다','350','1000','','10')</v>
+        <v>insert into GOODS values(246,'썬키스트자몽소다','350','1000','','7')</v>
       </c>
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
@@ -9809,14 +9898,14 @@
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2">
-        <v>10</v>
-      </c>
-      <c r="G250" t="s">
+        <v>7</v>
+      </c>
+      <c r="G250" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H250" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(247,'포카리스웨트','340','1000','','10')</v>
+        <v>insert into GOODS values(247,'포카리스웨트','340','1000','','7')</v>
       </c>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
@@ -9838,14 +9927,14 @@
       </c>
       <c r="E251" s="2"/>
       <c r="F251" s="2">
-        <v>10</v>
-      </c>
-      <c r="G251" t="s">
+        <v>7</v>
+      </c>
+      <c r="G251" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H251" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(248,'코코팜복숭아','300','1000','','10')</v>
+        <v>insert into GOODS values(248,'코코팜복숭아','300','1000','','7')</v>
       </c>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
@@ -9867,14 +9956,14 @@
       </c>
       <c r="E252" s="2"/>
       <c r="F252" s="2">
-        <v>10</v>
-      </c>
-      <c r="G252" t="s">
+        <v>7</v>
+      </c>
+      <c r="G252" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H252" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(249,'옥수수수염차','500','1000','','10')</v>
+        <v>insert into GOODS values(249,'옥수수수염차','500','1000','','7')</v>
       </c>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
@@ -9896,14 +9985,14 @@
       </c>
       <c r="E253" s="2"/>
       <c r="F253" s="2">
-        <v>10</v>
-      </c>
-      <c r="G253" t="s">
+        <v>7</v>
+      </c>
+      <c r="G253" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H253" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(250,'가을우엉차','500','1000','','10')</v>
+        <v>insert into GOODS values(250,'가을우엉차','500','1000','','7')</v>
       </c>
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
@@ -9925,14 +10014,14 @@
       </c>
       <c r="E254" s="2"/>
       <c r="F254" s="2">
-        <v>10</v>
-      </c>
-      <c r="G254" t="s">
+        <v>7</v>
+      </c>
+      <c r="G254" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H254" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(251,'스카시오렌지','1500','1000','','10')</v>
+        <v>insert into GOODS values(251,'스카시오렌지','1500','1000','','7')</v>
       </c>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
@@ -9954,14 +10043,14 @@
       </c>
       <c r="E255" s="2"/>
       <c r="F255" s="2">
-        <v>10</v>
-      </c>
-      <c r="G255" t="s">
+        <v>7</v>
+      </c>
+      <c r="G255" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H255" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(252,'스카시포도','1500','1000','','10')</v>
+        <v>insert into GOODS values(252,'스카시포도','1500','1000','','7')</v>
       </c>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
@@ -9983,14 +10072,14 @@
       </c>
       <c r="E256" s="2"/>
       <c r="F256" s="2">
-        <v>10</v>
-      </c>
-      <c r="G256" t="s">
+        <v>7</v>
+      </c>
+      <c r="G256" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H256" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(253,'맥콜','1500','1000','','10')</v>
+        <v>insert into GOODS values(253,'맥콜','1500','1000','','7')</v>
       </c>
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
@@ -10012,14 +10101,14 @@
       </c>
       <c r="E257" s="2"/>
       <c r="F257" s="2">
-        <v>10</v>
-      </c>
-      <c r="G257" t="s">
+        <v>7</v>
+      </c>
+      <c r="G257" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H257" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(254,'데모소다애플캔','1500','2000','','10')</v>
+        <v>insert into GOODS values(254,'데모소다애플캔','1500','2000','','7')</v>
       </c>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
@@ -10041,14 +10130,14 @@
       </c>
       <c r="E258" s="2"/>
       <c r="F258" s="2">
-        <v>10</v>
-      </c>
-      <c r="G258" t="s">
+        <v>7</v>
+      </c>
+      <c r="G258" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H258" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(255,'칸타타아메리카노','275','1000','','10')</v>
+        <v>insert into GOODS values(255,'칸타타아메리카노','275','1000','','7')</v>
       </c>
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
@@ -10070,14 +10159,14 @@
       </c>
       <c r="E259" s="2"/>
       <c r="F259" s="2">
-        <v>10</v>
-      </c>
-      <c r="G259" t="s">
+        <v>7</v>
+      </c>
+      <c r="G259" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H259" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(256,'조지아고티카아로마라떼','270','1000','','10')</v>
+        <v>insert into GOODS values(256,'조지아고티카아로마라떼','270','1000','','7')</v>
       </c>
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
@@ -10099,14 +10188,14 @@
       </c>
       <c r="E260" s="2"/>
       <c r="F260" s="2">
-        <v>10</v>
-      </c>
-      <c r="G260" t="s">
+        <v>7</v>
+      </c>
+      <c r="G260" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H260" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>insert into GOODS values(257,'팹시콜라','1140','2000','','10')</v>
+        <v>insert into GOODS values(257,'팹시콜라','1140','2000','','7')</v>
       </c>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
@@ -10128,14 +10217,14 @@
       </c>
       <c r="E261" s="2"/>
       <c r="F261" s="2">
-        <v>10</v>
-      </c>
-      <c r="G261" t="s">
+        <v>7</v>
+      </c>
+      <c r="G261" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H261" s="3" t="str">
         <f t="shared" ref="H261:H324" si="4">CONCATENATE(G261,A261,",'",B261,"','",C261,"','",D261,"','",E261,"','",F261,"')")</f>
-        <v>insert into GOODS values(258,'갈아만든배','1500','2000','','10')</v>
+        <v>insert into GOODS values(258,'갈아만든배','1500','2000','','7')</v>
       </c>
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
@@ -10157,14 +10246,14 @@
       </c>
       <c r="E262" s="2"/>
       <c r="F262" s="2">
-        <v>10</v>
-      </c>
-      <c r="G262" t="s">
+        <v>7</v>
+      </c>
+      <c r="G262" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H262" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>insert into GOODS values(259,'홈플러스샘물','12000','2000','','10')</v>
+        <v>insert into GOODS values(259,'홈플러스샘물','12000','2000','','7')</v>
       </c>
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
@@ -10186,14 +10275,14 @@
       </c>
       <c r="E263" s="2"/>
       <c r="F263" s="2">
-        <v>10</v>
-      </c>
-      <c r="G263" t="s">
+        <v>7</v>
+      </c>
+      <c r="G263" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H263" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>insert into GOODS values(260,'핫식스','750','1650','','10')</v>
+        <v>insert into GOODS values(260,'핫식스','750','1650','','7')</v>
       </c>
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
@@ -10215,14 +10304,14 @@
       </c>
       <c r="E264" s="2"/>
       <c r="F264" s="2">
-        <v>10</v>
-      </c>
-      <c r="G264" t="s">
+        <v>7</v>
+      </c>
+      <c r="G264" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H264" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>insert into GOODS values(261,'암바사','1500','1500','','10')</v>
+        <v>insert into GOODS values(261,'암바사','1500','1500','','7')</v>
       </c>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
@@ -10244,14 +10333,14 @@
       </c>
       <c r="E265" s="2"/>
       <c r="F265" s="2">
-        <v>10</v>
-      </c>
-      <c r="G265" t="s">
+        <v>7</v>
+      </c>
+      <c r="G265" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H265" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>insert into GOODS values(262,'배지밀토틀러','3040','7480','','10')</v>
+        <v>insert into GOODS values(262,'배지밀토틀러','3040','7480','','7')</v>
       </c>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
@@ -10273,14 +10362,14 @@
       </c>
       <c r="E266" s="2"/>
       <c r="F266" s="2">
-        <v>10</v>
-      </c>
-      <c r="G266" t="s">
+        <v>7</v>
+      </c>
+      <c r="G266" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H266" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>insert into GOODS values(263,'워터샘물','2000','580','','10')</v>
+        <v>insert into GOODS values(263,'워터샘물','2000','580','','7')</v>
       </c>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
@@ -10302,14 +10391,14 @@
       </c>
       <c r="E267" s="2"/>
       <c r="F267" s="2">
-        <v>10</v>
-      </c>
-      <c r="G267" t="s">
+        <v>7</v>
+      </c>
+      <c r="G267" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H267" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>insert into GOODS values(264,'홈플러스콜라','1500','500','','10')</v>
+        <v>insert into GOODS values(264,'홈플러스콜라','1500','500','','7')</v>
       </c>
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
@@ -10331,14 +10420,14 @@
       </c>
       <c r="E268" s="2"/>
       <c r="F268" s="2">
-        <v>10</v>
-      </c>
-      <c r="G268" t="s">
+        <v>7</v>
+      </c>
+      <c r="G268" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H268" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>insert into GOODS values(265,'홈플러스사이다','1500','500','','10')</v>
+        <v>insert into GOODS values(265,'홈플러스사이다','1500','500','','7')</v>
       </c>
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
@@ -10360,14 +10449,14 @@
       </c>
       <c r="E269" s="2"/>
       <c r="F269" s="2">
-        <v>10</v>
-      </c>
-      <c r="G269" t="s">
+        <v>7</v>
+      </c>
+      <c r="G269" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H269" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>insert into GOODS values(266,'삼다수','10000','7600','','10')</v>
+        <v>insert into GOODS values(266,'삼다수','10000','7600','','7')</v>
       </c>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
@@ -10391,7 +10480,7 @@
       <c r="F270" s="2">
         <v>11</v>
       </c>
-      <c r="G270" t="s">
+      <c r="G270" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H270" s="3" t="str">
@@ -10420,7 +10509,7 @@
       <c r="F271" s="2">
         <v>11</v>
       </c>
-      <c r="G271" t="s">
+      <c r="G271" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H271" s="3" t="str">
@@ -10449,7 +10538,7 @@
       <c r="F272" s="2">
         <v>11</v>
       </c>
-      <c r="G272" t="s">
+      <c r="G272" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H272" s="3" t="str">
@@ -10478,7 +10567,7 @@
       <c r="F273" s="2">
         <v>11</v>
       </c>
-      <c r="G273" t="s">
+      <c r="G273" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H273" s="3" t="str">
@@ -10507,7 +10596,7 @@
       <c r="F274" s="2">
         <v>11</v>
       </c>
-      <c r="G274" t="s">
+      <c r="G274" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H274" s="3" t="str">
@@ -10536,7 +10625,7 @@
       <c r="F275" s="2">
         <v>11</v>
       </c>
-      <c r="G275" t="s">
+      <c r="G275" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H275" s="3" t="str">
@@ -10565,7 +10654,7 @@
       <c r="F276" s="2">
         <v>11</v>
       </c>
-      <c r="G276" t="s">
+      <c r="G276" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H276" s="3" t="str">
@@ -10594,7 +10683,7 @@
       <c r="F277" s="2">
         <v>11</v>
       </c>
-      <c r="G277" t="s">
+      <c r="G277" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H277" s="3" t="str">
@@ -10623,7 +10712,7 @@
       <c r="F278" s="2">
         <v>11</v>
       </c>
-      <c r="G278" t="s">
+      <c r="G278" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H278" s="3" t="str">
@@ -10652,7 +10741,7 @@
       <c r="F279" s="2">
         <v>11</v>
       </c>
-      <c r="G279" t="s">
+      <c r="G279" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H279" s="3" t="str">
@@ -10681,7 +10770,7 @@
       <c r="F280" s="2">
         <v>11</v>
       </c>
-      <c r="G280" t="s">
+      <c r="G280" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H280" s="3" t="str">
@@ -10710,7 +10799,7 @@
       <c r="F281" s="2">
         <v>11</v>
       </c>
-      <c r="G281" t="s">
+      <c r="G281" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H281" s="3" t="str">
@@ -10739,7 +10828,7 @@
       <c r="F282" s="2">
         <v>11</v>
       </c>
-      <c r="G282" t="s">
+      <c r="G282" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H282" s="3" t="str">
@@ -10768,7 +10857,7 @@
       <c r="F283" s="2">
         <v>11</v>
       </c>
-      <c r="G283" t="s">
+      <c r="G283" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H283" s="3" t="str">
@@ -10797,7 +10886,7 @@
       <c r="F284" s="2">
         <v>11</v>
       </c>
-      <c r="G284" t="s">
+      <c r="G284" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H284" s="3" t="str">
@@ -10826,7 +10915,7 @@
       <c r="F285" s="2">
         <v>11</v>
       </c>
-      <c r="G285" t="s">
+      <c r="G285" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H285" s="3" t="str">
@@ -10855,7 +10944,7 @@
       <c r="F286" s="2">
         <v>11</v>
       </c>
-      <c r="G286" t="s">
+      <c r="G286" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H286" s="3" t="str">
@@ -10884,7 +10973,7 @@
       <c r="F287" s="2">
         <v>11</v>
       </c>
-      <c r="G287" t="s">
+      <c r="G287" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H287" s="3" t="str">
@@ -10913,7 +11002,7 @@
       <c r="F288" s="2">
         <v>11</v>
       </c>
-      <c r="G288" t="s">
+      <c r="G288" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H288" s="3" t="str">
@@ -10942,7 +11031,7 @@
       <c r="F289" s="2">
         <v>11</v>
       </c>
-      <c r="G289" t="s">
+      <c r="G289" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H289" s="3" t="str">
@@ -10971,7 +11060,7 @@
       <c r="F290" s="2">
         <v>11</v>
       </c>
-      <c r="G290" t="s">
+      <c r="G290" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H290" s="3" t="str">
@@ -11000,7 +11089,7 @@
       <c r="F291" s="2">
         <v>11</v>
       </c>
-      <c r="G291" t="s">
+      <c r="G291" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H291" s="3" t="str">
@@ -11029,7 +11118,7 @@
       <c r="F292" s="2">
         <v>11</v>
       </c>
-      <c r="G292" t="s">
+      <c r="G292" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H292" s="3" t="str">
@@ -11058,7 +11147,7 @@
       <c r="F293" s="2">
         <v>11</v>
       </c>
-      <c r="G293" t="s">
+      <c r="G293" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H293" s="3" t="str">
@@ -11087,7 +11176,7 @@
       <c r="F294" s="2">
         <v>11</v>
       </c>
-      <c r="G294" t="s">
+      <c r="G294" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H294" s="3" t="str">
@@ -11116,7 +11205,7 @@
       <c r="F295" s="2">
         <v>11</v>
       </c>
-      <c r="G295" t="s">
+      <c r="G295" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H295" s="3" t="str">
@@ -11145,7 +11234,7 @@
       <c r="F296" s="2">
         <v>11</v>
       </c>
-      <c r="G296" t="s">
+      <c r="G296" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H296" s="3" t="str">
@@ -11174,7 +11263,7 @@
       <c r="F297" s="2">
         <v>11</v>
       </c>
-      <c r="G297" t="s">
+      <c r="G297" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H297" s="3" t="str">
@@ -11203,7 +11292,7 @@
       <c r="F298" s="2">
         <v>12</v>
       </c>
-      <c r="G298" t="s">
+      <c r="G298" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H298" s="3" t="str">
@@ -11232,7 +11321,7 @@
       <c r="F299" s="2">
         <v>12</v>
       </c>
-      <c r="G299" t="s">
+      <c r="G299" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H299" s="3" t="str">
@@ -11261,7 +11350,7 @@
       <c r="F300" s="2">
         <v>12</v>
       </c>
-      <c r="G300" t="s">
+      <c r="G300" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H300" s="3" t="str">
@@ -11290,7 +11379,7 @@
       <c r="F301" s="2">
         <v>12</v>
       </c>
-      <c r="G301" t="s">
+      <c r="G301" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H301" s="3" t="str">
@@ -11319,7 +11408,7 @@
       <c r="F302" s="2">
         <v>12</v>
       </c>
-      <c r="G302" t="s">
+      <c r="G302" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H302" s="3" t="str">
@@ -11348,7 +11437,7 @@
       <c r="F303" s="2">
         <v>12</v>
       </c>
-      <c r="G303" t="s">
+      <c r="G303" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H303" s="3" t="str">
@@ -11377,7 +11466,7 @@
       <c r="F304" s="2">
         <v>12</v>
       </c>
-      <c r="G304" t="s">
+      <c r="G304" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H304" s="3" t="str">
@@ -11406,7 +11495,7 @@
       <c r="F305" s="2">
         <v>12</v>
       </c>
-      <c r="G305" t="s">
+      <c r="G305" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H305" s="3" t="str">
@@ -11435,7 +11524,7 @@
       <c r="F306" s="2">
         <v>12</v>
       </c>
-      <c r="G306" t="s">
+      <c r="G306" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H306" s="3" t="str">
@@ -11464,7 +11553,7 @@
       <c r="F307" s="2">
         <v>12</v>
       </c>
-      <c r="G307" t="s">
+      <c r="G307" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H307" s="3" t="str">
@@ -11493,7 +11582,7 @@
       <c r="F308" s="2">
         <v>12</v>
       </c>
-      <c r="G308" t="s">
+      <c r="G308" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H308" s="3" t="str">
@@ -11522,7 +11611,7 @@
       <c r="F309" s="2">
         <v>12</v>
       </c>
-      <c r="G309" t="s">
+      <c r="G309" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H309" s="3" t="str">
@@ -11551,7 +11640,7 @@
       <c r="F310" s="2">
         <v>12</v>
       </c>
-      <c r="G310" t="s">
+      <c r="G310" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H310" s="3" t="str">
@@ -11580,7 +11669,7 @@
       <c r="F311" s="2">
         <v>12</v>
       </c>
-      <c r="G311" t="s">
+      <c r="G311" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H311" s="3" t="str">
@@ -11609,7 +11698,7 @@
       <c r="F312" s="2">
         <v>12</v>
       </c>
-      <c r="G312" t="s">
+      <c r="G312" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H312" s="3" t="str">
@@ -11638,7 +11727,7 @@
       <c r="F313" s="2">
         <v>12</v>
       </c>
-      <c r="G313" t="s">
+      <c r="G313" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H313" s="3" t="str">
@@ -11667,7 +11756,7 @@
       <c r="F314" s="2">
         <v>12</v>
       </c>
-      <c r="G314" t="s">
+      <c r="G314" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H314" s="3" t="str">
@@ -11696,7 +11785,7 @@
       <c r="F315" s="2">
         <v>12</v>
       </c>
-      <c r="G315" t="s">
+      <c r="G315" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H315" s="3" t="str">
@@ -11725,7 +11814,7 @@
       <c r="F316" s="2">
         <v>12</v>
       </c>
-      <c r="G316" t="s">
+      <c r="G316" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H316" s="3" t="str">
@@ -11754,7 +11843,7 @@
       <c r="F317" s="2">
         <v>12</v>
       </c>
-      <c r="G317" t="s">
+      <c r="G317" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H317" s="3" t="str">
@@ -11783,7 +11872,7 @@
       <c r="F318" s="2">
         <v>12</v>
       </c>
-      <c r="G318" t="s">
+      <c r="G318" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H318" s="3" t="str">
@@ -11812,7 +11901,7 @@
       <c r="F319" s="2">
         <v>12</v>
       </c>
-      <c r="G319" t="s">
+      <c r="G319" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H319" s="3" t="str">
@@ -11841,7 +11930,7 @@
       <c r="F320" s="2">
         <v>12</v>
       </c>
-      <c r="G320" t="s">
+      <c r="G320" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H320" s="3" t="str">
@@ -11870,7 +11959,7 @@
       <c r="F321" s="2">
         <v>12</v>
       </c>
-      <c r="G321" t="s">
+      <c r="G321" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H321" s="3" t="str">
@@ -11899,7 +11988,7 @@
       <c r="F322" s="2">
         <v>12</v>
       </c>
-      <c r="G322" t="s">
+      <c r="G322" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H322" s="3" t="str">
@@ -11928,7 +12017,7 @@
       <c r="F323" s="2">
         <v>12</v>
       </c>
-      <c r="G323" t="s">
+      <c r="G323" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H323" s="3" t="str">
@@ -11957,7 +12046,7 @@
       <c r="F324" s="2">
         <v>12</v>
       </c>
-      <c r="G324" t="s">
+      <c r="G324" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H324" s="3" t="str">
@@ -11986,7 +12075,7 @@
       <c r="F325" s="2">
         <v>12</v>
       </c>
-      <c r="G325" t="s">
+      <c r="G325" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H325" s="3" t="str">
@@ -12015,7 +12104,7 @@
       <c r="F326" s="2">
         <v>12</v>
       </c>
-      <c r="G326" t="s">
+      <c r="G326" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H326" s="3" t="str">
@@ -12044,7 +12133,7 @@
       <c r="F327" s="2">
         <v>12</v>
       </c>
-      <c r="G327" t="s">
+      <c r="G327" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H327" s="3" t="str">
@@ -12073,7 +12162,7 @@
       <c r="F328" s="2">
         <v>12</v>
       </c>
-      <c r="G328" t="s">
+      <c r="G328" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H328" s="3" t="str">
@@ -12102,7 +12191,7 @@
       <c r="F329" s="2">
         <v>12</v>
       </c>
-      <c r="G329" t="s">
+      <c r="G329" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H329" s="3" t="str">
@@ -12131,7 +12220,7 @@
       <c r="F330" s="2">
         <v>12</v>
       </c>
-      <c r="G330" t="s">
+      <c r="G330" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H330" s="3" t="str">
@@ -12160,7 +12249,7 @@
       <c r="F331" s="2">
         <v>12</v>
       </c>
-      <c r="G331" t="s">
+      <c r="G331" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H331" s="3" t="str">
@@ -12189,7 +12278,7 @@
       <c r="F332" s="2">
         <v>12</v>
       </c>
-      <c r="G332" t="s">
+      <c r="G332" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H332" s="3" t="str">
@@ -12218,7 +12307,7 @@
       <c r="F333" s="2">
         <v>12</v>
       </c>
-      <c r="G333" t="s">
+      <c r="G333" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H333" s="3" t="str">
@@ -12247,7 +12336,7 @@
       <c r="F334" s="2">
         <v>12</v>
       </c>
-      <c r="G334" t="s">
+      <c r="G334" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H334" s="3" t="str">
@@ -12276,7 +12365,7 @@
       <c r="F335" s="2">
         <v>12</v>
       </c>
-      <c r="G335" t="s">
+      <c r="G335" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H335" s="3" t="str">
@@ -12305,7 +12394,7 @@
       <c r="F336" s="2">
         <v>12</v>
       </c>
-      <c r="G336" t="s">
+      <c r="G336" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H336" s="3" t="str">
@@ -12334,7 +12423,7 @@
       <c r="F337" s="2">
         <v>12</v>
       </c>
-      <c r="G337" t="s">
+      <c r="G337" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H337" s="3" t="str">
@@ -12363,7 +12452,7 @@
       <c r="F338" s="2">
         <v>12</v>
       </c>
-      <c r="G338" t="s">
+      <c r="G338" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H338" s="3" t="str">
@@ -12392,7 +12481,7 @@
       <c r="F339" s="2">
         <v>12</v>
       </c>
-      <c r="G339" t="s">
+      <c r="G339" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H339" s="3" t="str">
@@ -12421,7 +12510,7 @@
       <c r="F340" s="2">
         <v>12</v>
       </c>
-      <c r="G340" t="s">
+      <c r="G340" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H340" s="3" t="str">
@@ -12450,7 +12539,7 @@
       <c r="F341" s="2">
         <v>12</v>
       </c>
-      <c r="G341" t="s">
+      <c r="G341" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H341" s="3" t="str">
@@ -12479,7 +12568,7 @@
       <c r="F342" s="2">
         <v>13</v>
       </c>
-      <c r="G342" t="s">
+      <c r="G342" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H342" s="3" t="str">
@@ -12508,7 +12597,7 @@
       <c r="F343" s="2">
         <v>13</v>
       </c>
-      <c r="G343" t="s">
+      <c r="G343" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H343" s="3" t="str">
@@ -12537,7 +12626,7 @@
       <c r="F344" s="2">
         <v>13</v>
       </c>
-      <c r="G344" t="s">
+      <c r="G344" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H344" s="3" t="str">
@@ -12566,7 +12655,7 @@
       <c r="F345" s="2">
         <v>13</v>
       </c>
-      <c r="G345" t="s">
+      <c r="G345" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H345" s="3" t="str">
@@ -12595,7 +12684,7 @@
       <c r="F346" s="2">
         <v>13</v>
       </c>
-      <c r="G346" t="s">
+      <c r="G346" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H346" s="3" t="str">
@@ -12624,7 +12713,7 @@
       <c r="F347" s="2">
         <v>13</v>
       </c>
-      <c r="G347" t="s">
+      <c r="G347" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H347" s="3" t="str">
@@ -12653,7 +12742,7 @@
       <c r="F348" s="2">
         <v>13</v>
       </c>
-      <c r="G348" t="s">
+      <c r="G348" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H348" s="3" t="str">
@@ -12682,7 +12771,7 @@
       <c r="F349" s="2">
         <v>13</v>
       </c>
-      <c r="G349" t="s">
+      <c r="G349" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H349" s="3" t="str">
@@ -12711,7 +12800,7 @@
       <c r="F350" s="2">
         <v>13</v>
       </c>
-      <c r="G350" t="s">
+      <c r="G350" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H350" s="3" t="str">
@@ -12740,7 +12829,7 @@
       <c r="F351" s="2">
         <v>13</v>
       </c>
-      <c r="G351" t="s">
+      <c r="G351" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H351" s="3" t="str">
@@ -12769,7 +12858,7 @@
       <c r="F352" s="2">
         <v>13</v>
       </c>
-      <c r="G352" t="s">
+      <c r="G352" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H352" s="3" t="str">
@@ -12798,7 +12887,7 @@
       <c r="F353" s="2">
         <v>13</v>
       </c>
-      <c r="G353" t="s">
+      <c r="G353" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H353" s="3" t="str">
@@ -12827,7 +12916,7 @@
       <c r="F354" s="2">
         <v>13</v>
       </c>
-      <c r="G354" t="s">
+      <c r="G354" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H354" s="3" t="str">
@@ -12856,7 +12945,7 @@
       <c r="F355" s="2">
         <v>13</v>
       </c>
-      <c r="G355" t="s">
+      <c r="G355" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H355" s="3" t="str">
@@ -12885,7 +12974,7 @@
       <c r="F356" s="2">
         <v>13</v>
       </c>
-      <c r="G356" t="s">
+      <c r="G356" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H356" s="3" t="str">
@@ -12914,7 +13003,7 @@
       <c r="F357" s="2">
         <v>13</v>
       </c>
-      <c r="G357" t="s">
+      <c r="G357" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H357" s="3" t="str">
@@ -12943,7 +13032,7 @@
       <c r="F358" s="2">
         <v>13</v>
       </c>
-      <c r="G358" t="s">
+      <c r="G358" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H358" s="3" t="str">
@@ -12972,7 +13061,7 @@
       <c r="F359" s="2">
         <v>13</v>
       </c>
-      <c r="G359" t="s">
+      <c r="G359" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H359" s="3" t="str">
@@ -13001,7 +13090,7 @@
       <c r="F360" s="2">
         <v>13</v>
       </c>
-      <c r="G360" t="s">
+      <c r="G360" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H360" s="3" t="str">
@@ -13030,7 +13119,7 @@
       <c r="F361" s="2">
         <v>13</v>
       </c>
-      <c r="G361" t="s">
+      <c r="G361" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H361" s="3" t="str">
@@ -13059,7 +13148,7 @@
       <c r="F362" s="2">
         <v>13</v>
       </c>
-      <c r="G362" t="s">
+      <c r="G362" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H362" s="3" t="str">
@@ -13088,7 +13177,7 @@
       <c r="F363" s="2">
         <v>13</v>
       </c>
-      <c r="G363" t="s">
+      <c r="G363" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H363" s="3" t="str">
@@ -13117,7 +13206,7 @@
       <c r="F364" s="2">
         <v>13</v>
       </c>
-      <c r="G364" t="s">
+      <c r="G364" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H364" s="3" t="str">
@@ -13146,7 +13235,7 @@
       <c r="F365" s="2">
         <v>13</v>
       </c>
-      <c r="G365" t="s">
+      <c r="G365" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H365" s="3" t="str">
@@ -13175,7 +13264,7 @@
       <c r="F366" s="2">
         <v>13</v>
       </c>
-      <c r="G366" t="s">
+      <c r="G366" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H366" s="3" t="str">
@@ -13204,7 +13293,7 @@
       <c r="F367" s="2">
         <v>13</v>
       </c>
-      <c r="G367" t="s">
+      <c r="G367" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H367" s="3" t="str">
@@ -13233,7 +13322,7 @@
       <c r="F368" s="2">
         <v>13</v>
       </c>
-      <c r="G368" t="s">
+      <c r="G368" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H368" s="3" t="str">
@@ -13262,7 +13351,7 @@
       <c r="F369" s="2">
         <v>13</v>
       </c>
-      <c r="G369" t="s">
+      <c r="G369" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H369" s="3" t="str">
@@ -13291,7 +13380,7 @@
       <c r="F370" s="2">
         <v>13</v>
       </c>
-      <c r="G370" t="s">
+      <c r="G370" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H370" s="3" t="str">
@@ -13320,7 +13409,7 @@
       <c r="F371" s="2">
         <v>13</v>
       </c>
-      <c r="G371" t="s">
+      <c r="G371" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H371" s="3" t="str">
@@ -13349,7 +13438,7 @@
       <c r="F372" s="2">
         <v>13</v>
       </c>
-      <c r="G372" t="s">
+      <c r="G372" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H372" s="3" t="str">
@@ -13378,7 +13467,7 @@
       <c r="F373" s="2">
         <v>13</v>
       </c>
-      <c r="G373" t="s">
+      <c r="G373" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H373" s="3" t="str">
@@ -13407,7 +13496,7 @@
       <c r="F374" s="2">
         <v>13</v>
       </c>
-      <c r="G374" t="s">
+      <c r="G374" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H374" s="3" t="str">
@@ -13436,7 +13525,7 @@
       <c r="F375" s="2">
         <v>13</v>
       </c>
-      <c r="G375" t="s">
+      <c r="G375" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H375" s="3" t="str">
@@ -13465,7 +13554,7 @@
       <c r="F376" s="2">
         <v>13</v>
       </c>
-      <c r="G376" t="s">
+      <c r="G376" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H376" s="3" t="str">
@@ -13494,7 +13583,7 @@
       <c r="F377" s="2">
         <v>13</v>
       </c>
-      <c r="G377" t="s">
+      <c r="G377" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H377" s="3" t="str">
@@ -13523,7 +13612,7 @@
       <c r="F378" s="2">
         <v>13</v>
       </c>
-      <c r="G378" t="s">
+      <c r="G378" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H378" s="3" t="str">
@@ -13552,7 +13641,7 @@
       <c r="F379" s="2">
         <v>13</v>
       </c>
-      <c r="G379" t="s">
+      <c r="G379" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H379" s="3" t="str">
@@ -13581,7 +13670,7 @@
       <c r="F380" s="2">
         <v>13</v>
       </c>
-      <c r="G380" t="s">
+      <c r="G380" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H380" s="3" t="str">
@@ -13610,7 +13699,7 @@
       <c r="F381" s="2">
         <v>13</v>
       </c>
-      <c r="G381" t="s">
+      <c r="G381" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H381" s="3" t="str">
@@ -13639,7 +13728,7 @@
       <c r="F382" s="2">
         <v>13</v>
       </c>
-      <c r="G382" t="s">
+      <c r="G382" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H382" s="3" t="str">
@@ -13668,7 +13757,7 @@
       <c r="F383" s="2">
         <v>14</v>
       </c>
-      <c r="G383" t="s">
+      <c r="G383" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H383" s="3" t="str">
@@ -13697,7 +13786,7 @@
       <c r="F384" s="2">
         <v>14</v>
       </c>
-      <c r="G384" t="s">
+      <c r="G384" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H384" s="3" t="str">
@@ -13726,7 +13815,7 @@
       <c r="F385" s="2">
         <v>14</v>
       </c>
-      <c r="G385" t="s">
+      <c r="G385" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H385" s="3" t="str">
@@ -13755,7 +13844,7 @@
       <c r="F386" s="2">
         <v>14</v>
       </c>
-      <c r="G386" t="s">
+      <c r="G386" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H386" s="3" t="str">
@@ -13784,7 +13873,7 @@
       <c r="F387" s="2">
         <v>14</v>
       </c>
-      <c r="G387" t="s">
+      <c r="G387" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H387" s="3" t="str">
@@ -13813,7 +13902,7 @@
       <c r="F388" s="2">
         <v>14</v>
       </c>
-      <c r="G388" t="s">
+      <c r="G388" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H388" s="3" t="str">
@@ -13842,7 +13931,7 @@
       <c r="F389" s="2">
         <v>14</v>
       </c>
-      <c r="G389" t="s">
+      <c r="G389" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H389" s="3" t="str">
@@ -13871,7 +13960,7 @@
       <c r="F390" s="2">
         <v>14</v>
       </c>
-      <c r="G390" t="s">
+      <c r="G390" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H390" s="3" t="str">
@@ -13900,7 +13989,7 @@
       <c r="F391" s="2">
         <v>14</v>
       </c>
-      <c r="G391" t="s">
+      <c r="G391" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H391" s="3" t="str">
@@ -13929,7 +14018,7 @@
       <c r="F392" s="2">
         <v>14</v>
       </c>
-      <c r="G392" t="s">
+      <c r="G392" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H392" s="3" t="str">
@@ -13958,7 +14047,7 @@
       <c r="F393" s="2">
         <v>14</v>
       </c>
-      <c r="G393" t="s">
+      <c r="G393" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H393" s="3" t="str">
@@ -13987,7 +14076,7 @@
       <c r="F394" s="2">
         <v>14</v>
       </c>
-      <c r="G394" t="s">
+      <c r="G394" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H394" s="3" t="str">
@@ -14016,7 +14105,7 @@
       <c r="F395" s="2">
         <v>14</v>
       </c>
-      <c r="G395" t="s">
+      <c r="G395" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H395" s="3" t="str">
@@ -14045,7 +14134,7 @@
       <c r="F396" s="2">
         <v>14</v>
       </c>
-      <c r="G396" t="s">
+      <c r="G396" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H396" s="3" t="str">
@@ -14074,7 +14163,7 @@
       <c r="F397" s="2">
         <v>14</v>
       </c>
-      <c r="G397" t="s">
+      <c r="G397" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H397" s="3" t="str">
@@ -14103,7 +14192,7 @@
       <c r="F398" s="2">
         <v>14</v>
       </c>
-      <c r="G398" t="s">
+      <c r="G398" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H398" s="3" t="str">
@@ -14132,7 +14221,7 @@
       <c r="F399" s="2">
         <v>14</v>
       </c>
-      <c r="G399" t="s">
+      <c r="G399" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H399" s="3" t="str">
@@ -14161,7 +14250,7 @@
       <c r="F400" s="2">
         <v>14</v>
       </c>
-      <c r="G400" t="s">
+      <c r="G400" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H400" s="3" t="str">
@@ -14190,7 +14279,7 @@
       <c r="F401" s="2">
         <v>14</v>
       </c>
-      <c r="G401" t="s">
+      <c r="G401" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H401" s="3" t="str">
@@ -14219,7 +14308,7 @@
       <c r="F402" s="2">
         <v>14</v>
       </c>
-      <c r="G402" t="s">
+      <c r="G402" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H402" s="3" t="str">
@@ -14248,7 +14337,7 @@
       <c r="F403" s="2">
         <v>14</v>
       </c>
-      <c r="G403" t="s">
+      <c r="G403" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H403" s="3" t="str">
@@ -14277,7 +14366,7 @@
       <c r="F404" s="2">
         <v>14</v>
       </c>
-      <c r="G404" t="s">
+      <c r="G404" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H404" s="3" t="str">
@@ -14306,7 +14395,7 @@
       <c r="F405" s="2">
         <v>14</v>
       </c>
-      <c r="G405" t="s">
+      <c r="G405" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H405" s="3" t="str">
@@ -14335,7 +14424,7 @@
       <c r="F406" s="2">
         <v>14</v>
       </c>
-      <c r="G406" t="s">
+      <c r="G406" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H406" s="3" t="str">
@@ -14364,7 +14453,7 @@
       <c r="F407" s="2">
         <v>14</v>
       </c>
-      <c r="G407" t="s">
+      <c r="G407" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H407" s="3" t="str">
@@ -14393,7 +14482,7 @@
       <c r="F408" s="2">
         <v>14</v>
       </c>
-      <c r="G408" t="s">
+      <c r="G408" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H408" s="3" t="str">
@@ -14422,7 +14511,7 @@
       <c r="F409" s="2">
         <v>14</v>
       </c>
-      <c r="G409" t="s">
+      <c r="G409" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H409" s="3" t="str">
@@ -14451,7 +14540,7 @@
       <c r="F410" s="2">
         <v>14</v>
       </c>
-      <c r="G410" t="s">
+      <c r="G410" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H410" s="3" t="str">
@@ -14480,7 +14569,7 @@
       <c r="F411" s="2">
         <v>14</v>
       </c>
-      <c r="G411" t="s">
+      <c r="G411" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H411" s="3" t="str">
@@ -14509,7 +14598,7 @@
       <c r="F412" s="2">
         <v>14</v>
       </c>
-      <c r="G412" t="s">
+      <c r="G412" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H412" s="3" t="str">
@@ -14538,7 +14627,7 @@
       <c r="F413" s="2">
         <v>14</v>
       </c>
-      <c r="G413" t="s">
+      <c r="G413" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H413" s="3" t="str">
@@ -14567,7 +14656,7 @@
       <c r="F414" s="2">
         <v>14</v>
       </c>
-      <c r="G414" t="s">
+      <c r="G414" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H414" s="3" t="str">
@@ -14596,7 +14685,7 @@
       <c r="F415" s="2">
         <v>14</v>
       </c>
-      <c r="G415" t="s">
+      <c r="G415" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H415" s="3" t="str">
@@ -14625,7 +14714,7 @@
       <c r="F416" s="2">
         <v>14</v>
       </c>
-      <c r="G416" t="s">
+      <c r="G416" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H416" s="3" t="str">
@@ -14654,7 +14743,7 @@
       <c r="F417" s="2">
         <v>14</v>
       </c>
-      <c r="G417" t="s">
+      <c r="G417" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H417" s="3" t="str">
@@ -14683,7 +14772,7 @@
       <c r="F418" s="2">
         <v>14</v>
       </c>
-      <c r="G418" t="s">
+      <c r="G418" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H418" s="3" t="str">
@@ -14712,7 +14801,7 @@
       <c r="F419" s="2">
         <v>14</v>
       </c>
-      <c r="G419" t="s">
+      <c r="G419" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H419" s="3" t="str">
@@ -14741,7 +14830,7 @@
       <c r="F420" s="2">
         <v>14</v>
       </c>
-      <c r="G420" t="s">
+      <c r="G420" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H420" s="3" t="str">
@@ -14770,7 +14859,7 @@
       <c r="F421" s="2">
         <v>15</v>
       </c>
-      <c r="G421" t="s">
+      <c r="G421" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H421" s="3" t="str">
@@ -14799,7 +14888,7 @@
       <c r="F422" s="2">
         <v>15</v>
       </c>
-      <c r="G422" t="s">
+      <c r="G422" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H422" s="3" t="str">
@@ -14828,7 +14917,7 @@
       <c r="F423" s="2">
         <v>15</v>
       </c>
-      <c r="G423" t="s">
+      <c r="G423" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H423" s="3" t="str">
@@ -14857,7 +14946,7 @@
       <c r="F424" s="2">
         <v>15</v>
       </c>
-      <c r="G424" t="s">
+      <c r="G424" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H424" s="3" t="str">
@@ -14886,7 +14975,7 @@
       <c r="F425" s="2">
         <v>15</v>
       </c>
-      <c r="G425" t="s">
+      <c r="G425" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H425" s="3" t="str">
@@ -14915,7 +15004,7 @@
       <c r="F426" s="2">
         <v>15</v>
       </c>
-      <c r="G426" t="s">
+      <c r="G426" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H426" s="3" t="str">
@@ -14944,7 +15033,7 @@
       <c r="F427" s="2">
         <v>15</v>
       </c>
-      <c r="G427" t="s">
+      <c r="G427" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H427" s="3" t="str">
@@ -14973,7 +15062,7 @@
       <c r="F428" s="2">
         <v>15</v>
       </c>
-      <c r="G428" t="s">
+      <c r="G428" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H428" s="3" t="str">
@@ -15002,7 +15091,7 @@
       <c r="F429" s="2">
         <v>15</v>
       </c>
-      <c r="G429" t="s">
+      <c r="G429" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H429" s="3" t="str">
@@ -15031,7 +15120,7 @@
       <c r="F430" s="2">
         <v>15</v>
       </c>
-      <c r="G430" t="s">
+      <c r="G430" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H430" s="3" t="str">
@@ -15060,7 +15149,7 @@
       <c r="F431" s="2">
         <v>15</v>
       </c>
-      <c r="G431" t="s">
+      <c r="G431" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H431" s="3" t="str">
@@ -15089,7 +15178,7 @@
       <c r="F432" s="2">
         <v>15</v>
       </c>
-      <c r="G432" t="s">
+      <c r="G432" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H432" s="3" t="str">
@@ -15118,7 +15207,7 @@
       <c r="F433" s="2">
         <v>15</v>
       </c>
-      <c r="G433" t="s">
+      <c r="G433" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H433" s="3" t="str">
@@ -15147,7 +15236,7 @@
       <c r="F434" s="2">
         <v>15</v>
       </c>
-      <c r="G434" t="s">
+      <c r="G434" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H434" s="3" t="str">
@@ -15176,7 +15265,7 @@
       <c r="F435" s="2">
         <v>15</v>
       </c>
-      <c r="G435" t="s">
+      <c r="G435" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H435" s="3" t="str">
@@ -15205,7 +15294,7 @@
       <c r="F436" s="2">
         <v>15</v>
       </c>
-      <c r="G436" t="s">
+      <c r="G436" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H436" s="3" t="str">
@@ -15234,7 +15323,7 @@
       <c r="F437" s="2">
         <v>15</v>
       </c>
-      <c r="G437" t="s">
+      <c r="G437" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H437" s="3" t="str">
@@ -15263,7 +15352,7 @@
       <c r="F438" s="2">
         <v>15</v>
       </c>
-      <c r="G438" t="s">
+      <c r="G438" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H438" s="3" t="str">
@@ -15292,7 +15381,7 @@
       <c r="F439" s="2">
         <v>15</v>
       </c>
-      <c r="G439" t="s">
+      <c r="G439" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H439" s="3" t="str">
@@ -15321,7 +15410,7 @@
       <c r="F440" s="2">
         <v>15</v>
       </c>
-      <c r="G440" t="s">
+      <c r="G440" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H440" s="3" t="str">
@@ -15350,7 +15439,7 @@
       <c r="F441" s="2">
         <v>15</v>
       </c>
-      <c r="G441" t="s">
+      <c r="G441" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H441" s="3" t="str">
@@ -15379,7 +15468,7 @@
       <c r="F442" s="2">
         <v>15</v>
       </c>
-      <c r="G442" t="s">
+      <c r="G442" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H442" s="3" t="str">
@@ -15408,7 +15497,7 @@
       <c r="F443" s="2">
         <v>15</v>
       </c>
-      <c r="G443" t="s">
+      <c r="G443" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H443" s="3" t="str">
@@ -15437,7 +15526,7 @@
       <c r="F444" s="2">
         <v>15</v>
       </c>
-      <c r="G444" t="s">
+      <c r="G444" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H444" s="3" t="str">
@@ -15466,7 +15555,7 @@
       <c r="F445" s="2">
         <v>16</v>
       </c>
-      <c r="G445" t="s">
+      <c r="G445" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H445" s="3" t="str">
@@ -15495,7 +15584,7 @@
       <c r="F446" s="2">
         <v>16</v>
       </c>
-      <c r="G446" t="s">
+      <c r="G446" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H446" s="3" t="str">
@@ -15524,7 +15613,7 @@
       <c r="F447" s="2">
         <v>16</v>
       </c>
-      <c r="G447" t="s">
+      <c r="G447" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H447" s="3" t="str">
@@ -15553,7 +15642,7 @@
       <c r="F448" s="2">
         <v>16</v>
       </c>
-      <c r="G448" t="s">
+      <c r="G448" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H448" s="3" t="str">
@@ -15582,7 +15671,7 @@
       <c r="F449" s="2">
         <v>16</v>
       </c>
-      <c r="G449" t="s">
+      <c r="G449" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H449" s="3" t="str">
@@ -15611,7 +15700,7 @@
       <c r="F450" s="2">
         <v>16</v>
       </c>
-      <c r="G450" t="s">
+      <c r="G450" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H450" s="3" t="str">
@@ -15640,7 +15729,7 @@
       <c r="F451" s="2">
         <v>16</v>
       </c>
-      <c r="G451" t="s">
+      <c r="G451" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H451" s="3" t="str">
@@ -15669,7 +15758,7 @@
       <c r="F452" s="2">
         <v>16</v>
       </c>
-      <c r="G452" t="s">
+      <c r="G452" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H452" s="3" t="str">
@@ -15698,7 +15787,7 @@
       <c r="F453" s="2">
         <v>16</v>
       </c>
-      <c r="G453" t="s">
+      <c r="G453" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H453" s="3" t="str">
@@ -15727,7 +15816,7 @@
       <c r="F454" s="2">
         <v>16</v>
       </c>
-      <c r="G454" t="s">
+      <c r="G454" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H454" s="3" t="str">
@@ -15756,7 +15845,7 @@
       <c r="F455" s="2">
         <v>16</v>
       </c>
-      <c r="G455" t="s">
+      <c r="G455" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H455" s="3" t="str">
@@ -15785,7 +15874,7 @@
       <c r="F456" s="2">
         <v>16</v>
       </c>
-      <c r="G456" t="s">
+      <c r="G456" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H456" s="3" t="str">
@@ -15814,7 +15903,7 @@
       <c r="F457" s="2">
         <v>16</v>
       </c>
-      <c r="G457" t="s">
+      <c r="G457" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H457" s="3" t="str">
@@ -15843,7 +15932,7 @@
       <c r="F458" s="2">
         <v>16</v>
       </c>
-      <c r="G458" t="s">
+      <c r="G458" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H458" s="3" t="str">
@@ -15872,7 +15961,7 @@
       <c r="F459" s="2">
         <v>16</v>
       </c>
-      <c r="G459" t="s">
+      <c r="G459" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H459" s="3" t="str">
@@ -15901,7 +15990,7 @@
       <c r="F460" s="2">
         <v>16</v>
       </c>
-      <c r="G460" t="s">
+      <c r="G460" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H460" s="3" t="str">
@@ -15930,7 +16019,7 @@
       <c r="F461" s="2">
         <v>16</v>
       </c>
-      <c r="G461" t="s">
+      <c r="G461" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H461" s="3" t="str">
@@ -15959,7 +16048,7 @@
       <c r="F462" s="2">
         <v>16</v>
       </c>
-      <c r="G462" t="s">
+      <c r="G462" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H462" s="3" t="str">
@@ -15988,7 +16077,7 @@
       <c r="F463" s="2">
         <v>16</v>
       </c>
-      <c r="G463" t="s">
+      <c r="G463" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H463" s="3" t="str">
@@ -16017,7 +16106,7 @@
       <c r="F464" s="2">
         <v>16</v>
       </c>
-      <c r="G464" t="s">
+      <c r="G464" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H464" s="3" t="str">
@@ -16046,7 +16135,7 @@
       <c r="F465" s="2">
         <v>16</v>
       </c>
-      <c r="G465" t="s">
+      <c r="G465" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H465" s="3" t="str">
@@ -16075,7 +16164,7 @@
       <c r="F466" s="2">
         <v>16</v>
       </c>
-      <c r="G466" t="s">
+      <c r="G466" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H466" s="3" t="str">
@@ -16104,7 +16193,7 @@
       <c r="F467" s="2">
         <v>16</v>
       </c>
-      <c r="G467" t="s">
+      <c r="G467" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H467" s="3" t="str">
@@ -16133,7 +16222,7 @@
       <c r="F468" s="2">
         <v>16</v>
       </c>
-      <c r="G468" t="s">
+      <c r="G468" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H468" s="3" t="str">
@@ -16162,7 +16251,7 @@
       <c r="F469" s="2">
         <v>17</v>
       </c>
-      <c r="G469" t="s">
+      <c r="G469" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H469" s="3" t="str">
@@ -16191,7 +16280,7 @@
       <c r="F470" s="2">
         <v>17</v>
       </c>
-      <c r="G470" t="s">
+      <c r="G470" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H470" s="3" t="str">
@@ -16220,7 +16309,7 @@
       <c r="F471" s="2">
         <v>17</v>
       </c>
-      <c r="G471" t="s">
+      <c r="G471" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H471" s="3" t="str">
@@ -16249,7 +16338,7 @@
       <c r="F472" s="2">
         <v>17</v>
       </c>
-      <c r="G472" t="s">
+      <c r="G472" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H472" s="3" t="str">
@@ -16278,7 +16367,7 @@
       <c r="F473" s="2">
         <v>17</v>
       </c>
-      <c r="G473" t="s">
+      <c r="G473" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H473" s="3" t="str">
@@ -16307,7 +16396,7 @@
       <c r="F474" s="2">
         <v>17</v>
       </c>
-      <c r="G474" t="s">
+      <c r="G474" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H474" s="3" t="str">
@@ -16336,7 +16425,7 @@
       <c r="F475" s="2">
         <v>17</v>
       </c>
-      <c r="G475" t="s">
+      <c r="G475" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H475" s="3" t="str">
@@ -16365,7 +16454,7 @@
       <c r="F476" s="2">
         <v>17</v>
       </c>
-      <c r="G476" t="s">
+      <c r="G476" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H476" s="3" t="str">
@@ -16394,7 +16483,7 @@
       <c r="F477" s="2">
         <v>17</v>
       </c>
-      <c r="G477" t="s">
+      <c r="G477" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H477" s="3" t="str">
@@ -16423,7 +16512,7 @@
       <c r="F478" s="2">
         <v>17</v>
       </c>
-      <c r="G478" t="s">
+      <c r="G478" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H478" s="3" t="str">
@@ -16452,7 +16541,7 @@
       <c r="F479" s="2">
         <v>17</v>
       </c>
-      <c r="G479" t="s">
+      <c r="G479" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H479" s="3" t="str">
@@ -16481,7 +16570,7 @@
       <c r="F480" s="2">
         <v>17</v>
       </c>
-      <c r="G480" t="s">
+      <c r="G480" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H480" s="3" t="str">
@@ -16510,7 +16599,7 @@
       <c r="F481" s="2">
         <v>17</v>
       </c>
-      <c r="G481" t="s">
+      <c r="G481" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H481" s="3" t="str">
@@ -16539,7 +16628,7 @@
       <c r="F482" s="2">
         <v>17</v>
       </c>
-      <c r="G482" t="s">
+      <c r="G482" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H482" s="3" t="str">
@@ -16568,7 +16657,7 @@
       <c r="F483" s="2">
         <v>17</v>
       </c>
-      <c r="G483" t="s">
+      <c r="G483" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H483" s="3" t="str">
@@ -16597,7 +16686,7 @@
       <c r="F484" s="2">
         <v>17</v>
       </c>
-      <c r="G484" t="s">
+      <c r="G484" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H484" s="3" t="str">
@@ -16626,7 +16715,7 @@
       <c r="F485" s="2">
         <v>17</v>
       </c>
-      <c r="G485" t="s">
+      <c r="G485" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H485" s="3" t="str">
@@ -16655,7 +16744,7 @@
       <c r="F486" s="2">
         <v>17</v>
       </c>
-      <c r="G486" t="s">
+      <c r="G486" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H486" s="3" t="str">
@@ -16684,7 +16773,7 @@
       <c r="F487" s="2">
         <v>17</v>
       </c>
-      <c r="G487" t="s">
+      <c r="G487" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H487" s="3" t="str">
@@ -16713,7 +16802,7 @@
       <c r="F488" s="2">
         <v>17</v>
       </c>
-      <c r="G488" t="s">
+      <c r="G488" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H488" s="3" t="str">
@@ -16742,7 +16831,7 @@
       <c r="F489" s="2">
         <v>17</v>
       </c>
-      <c r="G489" t="s">
+      <c r="G489" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H489" s="3" t="str">
@@ -16771,7 +16860,7 @@
       <c r="F490" s="2">
         <v>17</v>
       </c>
-      <c r="G490" t="s">
+      <c r="G490" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H490" s="3" t="str">
@@ -16800,7 +16889,7 @@
       <c r="F491" s="2">
         <v>17</v>
       </c>
-      <c r="G491" t="s">
+      <c r="G491" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H491" s="3" t="str">
@@ -16829,7 +16918,7 @@
       <c r="F492" s="2">
         <v>17</v>
       </c>
-      <c r="G492" t="s">
+      <c r="G492" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H492" s="3" t="str">
@@ -16858,7 +16947,7 @@
       <c r="F493" s="2">
         <v>17</v>
       </c>
-      <c r="G493" t="s">
+      <c r="G493" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H493" s="3" t="str">
@@ -16887,7 +16976,7 @@
       <c r="F494" s="2">
         <v>17</v>
       </c>
-      <c r="G494" t="s">
+      <c r="G494" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H494" s="3" t="str">
@@ -16916,7 +17005,7 @@
       <c r="F495" s="2">
         <v>17</v>
       </c>
-      <c r="G495" t="s">
+      <c r="G495" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H495" s="3" t="str">
@@ -16945,7 +17034,7 @@
       <c r="F496" s="2">
         <v>17</v>
       </c>
-      <c r="G496" t="s">
+      <c r="G496" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H496" s="3" t="str">
@@ -16974,7 +17063,7 @@
       <c r="F497" s="2">
         <v>17</v>
       </c>
-      <c r="G497" t="s">
+      <c r="G497" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H497" s="3" t="str">
@@ -17003,7 +17092,7 @@
       <c r="F498" s="2">
         <v>17</v>
       </c>
-      <c r="G498" t="s">
+      <c r="G498" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H498" s="3" t="str">
@@ -17032,7 +17121,7 @@
       <c r="F499" s="2">
         <v>17</v>
       </c>
-      <c r="G499" t="s">
+      <c r="G499" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H499" s="3" t="str">
@@ -17061,7 +17150,7 @@
       <c r="F500" s="2">
         <v>17</v>
       </c>
-      <c r="G500" t="s">
+      <c r="G500" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H500" s="3" t="str">
@@ -17090,7 +17179,7 @@
       <c r="F501" s="2">
         <v>17</v>
       </c>
-      <c r="G501" t="s">
+      <c r="G501" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H501" s="3" t="str">
@@ -17119,7 +17208,7 @@
       <c r="F502" s="2">
         <v>17</v>
       </c>
-      <c r="G502" t="s">
+      <c r="G502" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H502" s="3" t="str">
@@ -17148,7 +17237,7 @@
       <c r="F503" s="2">
         <v>17</v>
       </c>
-      <c r="G503" t="s">
+      <c r="G503" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H503" s="3" t="str">
@@ -17177,7 +17266,7 @@
       <c r="F504" s="2">
         <v>17</v>
       </c>
-      <c r="G504" t="s">
+      <c r="G504" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H504" s="3" t="str">
@@ -17206,7 +17295,7 @@
       <c r="F505" s="2">
         <v>18</v>
       </c>
-      <c r="G505" t="s">
+      <c r="G505" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H505" s="3" t="str">
@@ -17235,7 +17324,7 @@
       <c r="F506" s="2">
         <v>18</v>
       </c>
-      <c r="G506" t="s">
+      <c r="G506" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H506" s="3" t="str">
@@ -17264,7 +17353,7 @@
       <c r="F507" s="2">
         <v>18</v>
       </c>
-      <c r="G507" t="s">
+      <c r="G507" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H507" s="3" t="str">
@@ -17293,7 +17382,7 @@
       <c r="F508" s="2">
         <v>18</v>
       </c>
-      <c r="G508" t="s">
+      <c r="G508" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H508" s="3" t="str">
@@ -17322,7 +17411,7 @@
       <c r="F509" s="2">
         <v>18</v>
       </c>
-      <c r="G509" t="s">
+      <c r="G509" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H509" s="3" t="str">
@@ -17351,7 +17440,7 @@
       <c r="F510" s="2">
         <v>18</v>
       </c>
-      <c r="G510" t="s">
+      <c r="G510" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H510" s="3" t="str">
@@ -17380,7 +17469,7 @@
       <c r="F511" s="2">
         <v>18</v>
       </c>
-      <c r="G511" t="s">
+      <c r="G511" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H511" s="3" t="str">
@@ -17409,7 +17498,7 @@
       <c r="F512" s="2">
         <v>18</v>
       </c>
-      <c r="G512" t="s">
+      <c r="G512" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H512" s="3" t="str">
@@ -17438,7 +17527,7 @@
       <c r="F513" s="2">
         <v>18</v>
       </c>
-      <c r="G513" t="s">
+      <c r="G513" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H513" s="3" t="str">
@@ -17467,7 +17556,7 @@
       <c r="F514" s="2">
         <v>18</v>
       </c>
-      <c r="G514" t="s">
+      <c r="G514" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H514" s="3" t="str">
@@ -17496,7 +17585,7 @@
       <c r="F515" s="2">
         <v>18</v>
       </c>
-      <c r="G515" t="s">
+      <c r="G515" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H515" s="3" t="str">
@@ -17525,7 +17614,7 @@
       <c r="F516" s="2">
         <v>18</v>
       </c>
-      <c r="G516" t="s">
+      <c r="G516" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H516" s="3" t="str">
@@ -17554,7 +17643,7 @@
       <c r="F517" s="2">
         <v>18</v>
       </c>
-      <c r="G517" t="s">
+      <c r="G517" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H517" s="3" t="str">
@@ -17583,11 +17672,11 @@
       <c r="F518" s="2">
         <v>19</v>
       </c>
-      <c r="G518" t="s">
+      <c r="G518" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H518" s="3" t="str">
-        <f t="shared" ref="H518:H570" si="8">CONCATENATE(G518,A518,",'",B518,"','",C518,"','",D518,"','",E518,"','",F518,"')")</f>
+        <f t="shared" ref="H518:H546" si="8">CONCATENATE(G518,A518,",'",B518,"','",C518,"','",D518,"','",E518,"','",F518,"')")</f>
         <v>insert into GOODS values(515,'종이컵','192','1000','','19')</v>
       </c>
       <c r="I518" s="3"/>
@@ -17612,7 +17701,7 @@
       <c r="F519" s="2">
         <v>19</v>
       </c>
-      <c r="G519" t="s">
+      <c r="G519" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H519" s="3" t="str">
@@ -17641,7 +17730,7 @@
       <c r="F520" s="2">
         <v>19</v>
       </c>
-      <c r="G520" t="s">
+      <c r="G520" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H520" s="3" t="str">
@@ -17670,7 +17759,7 @@
       <c r="F521" s="2">
         <v>19</v>
       </c>
-      <c r="G521" t="s">
+      <c r="G521" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H521" s="3" t="str">
@@ -17699,7 +17788,7 @@
       <c r="F522" s="2">
         <v>19</v>
       </c>
-      <c r="G522" t="s">
+      <c r="G522" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H522" s="3" t="str">
@@ -17728,7 +17817,7 @@
       <c r="F523" s="2">
         <v>19</v>
       </c>
-      <c r="G523" t="s">
+      <c r="G523" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H523" s="3" t="str">
@@ -17757,7 +17846,7 @@
       <c r="F524" s="2">
         <v>19</v>
       </c>
-      <c r="G524" t="s">
+      <c r="G524" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H524" s="3" t="str">
@@ -17786,7 +17875,7 @@
       <c r="F525" s="2">
         <v>19</v>
       </c>
-      <c r="G525" t="s">
+      <c r="G525" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H525" s="3" t="str">
@@ -17815,7 +17904,7 @@
       <c r="F526" s="2">
         <v>19</v>
       </c>
-      <c r="G526" t="s">
+      <c r="G526" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H526" s="3" t="str">
@@ -17844,7 +17933,7 @@
       <c r="F527" s="2">
         <v>19</v>
       </c>
-      <c r="G527" t="s">
+      <c r="G527" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H527" s="3" t="str">
@@ -17873,7 +17962,7 @@
       <c r="F528" s="2">
         <v>19</v>
       </c>
-      <c r="G528" t="s">
+      <c r="G528" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H528" s="3" t="str">
@@ -17902,7 +17991,7 @@
       <c r="F529" s="2">
         <v>19</v>
       </c>
-      <c r="G529" t="s">
+      <c r="G529" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H529" s="3" t="str">
@@ -17931,7 +18020,7 @@
       <c r="F530" s="2">
         <v>19</v>
       </c>
-      <c r="G530" t="s">
+      <c r="G530" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H530" s="3" t="str">
@@ -17960,7 +18049,7 @@
       <c r="F531" s="2">
         <v>19</v>
       </c>
-      <c r="G531" t="s">
+      <c r="G531" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H531" s="3" t="str">
@@ -17989,7 +18078,7 @@
       <c r="F532" s="2">
         <v>20</v>
       </c>
-      <c r="G532" t="s">
+      <c r="G532" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H532" s="3" t="str">
@@ -18018,7 +18107,7 @@
       <c r="F533" s="2">
         <v>20</v>
       </c>
-      <c r="G533" t="s">
+      <c r="G533" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H533" s="3" t="str">
@@ -18047,7 +18136,7 @@
       <c r="F534" s="2">
         <v>20</v>
       </c>
-      <c r="G534" t="s">
+      <c r="G534" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H534" s="3" t="str">
@@ -18076,7 +18165,7 @@
       <c r="F535" s="2">
         <v>20</v>
       </c>
-      <c r="G535" t="s">
+      <c r="G535" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H535" s="3" t="str">
@@ -18105,7 +18194,7 @@
       <c r="F536" s="2">
         <v>20</v>
       </c>
-      <c r="G536" t="s">
+      <c r="G536" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H536" s="3" t="str">
@@ -18134,7 +18223,7 @@
       <c r="F537" s="2">
         <v>20</v>
       </c>
-      <c r="G537" t="s">
+      <c r="G537" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H537" s="3" t="str">
@@ -18163,7 +18252,7 @@
       <c r="F538" s="2">
         <v>20</v>
       </c>
-      <c r="G538" t="s">
+      <c r="G538" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H538" s="3" t="str">
@@ -18192,7 +18281,7 @@
       <c r="F539" s="2">
         <v>20</v>
       </c>
-      <c r="G539" t="s">
+      <c r="G539" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H539" s="3" t="str">
@@ -18221,7 +18310,7 @@
       <c r="F540" s="2">
         <v>20</v>
       </c>
-      <c r="G540" t="s">
+      <c r="G540" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H540" s="3" t="str">
@@ -18250,7 +18339,7 @@
       <c r="F541" s="2">
         <v>20</v>
       </c>
-      <c r="G541" t="s">
+      <c r="G541" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H541" s="3" t="str">
@@ -18279,7 +18368,7 @@
       <c r="F542" s="2">
         <v>20</v>
       </c>
-      <c r="G542" t="s">
+      <c r="G542" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H542" s="3" t="str">
@@ -18308,7 +18397,7 @@
       <c r="F543" s="2">
         <v>20</v>
       </c>
-      <c r="G543" t="s">
+      <c r="G543" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H543" s="3" t="str">
@@ -18337,7 +18426,7 @@
       <c r="F544" s="2">
         <v>20</v>
       </c>
-      <c r="G544" t="s">
+      <c r="G544" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H544" s="3" t="str">
@@ -18366,7 +18455,7 @@
       <c r="F545" s="2">
         <v>20</v>
       </c>
-      <c r="G545" t="s">
+      <c r="G545" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H545" s="3" t="str">
@@ -18395,7 +18484,7 @@
       <c r="F546" s="2">
         <v>20</v>
       </c>
-      <c r="G546" t="s">
+      <c r="G546" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H546" s="3" t="str">
@@ -18408,173 +18497,584 @@
       <c r="L546" s="3"/>
     </row>
     <row r="547" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A547" s="2"/>
-      <c r="B547" s="2"/>
-      <c r="C547" s="2"/>
-      <c r="D547" s="2"/>
+      <c r="A547" s="2">
+        <v>544</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C547" s="2">
+        <v>360</v>
+      </c>
+      <c r="D547" s="2">
+        <v>1200</v>
+      </c>
       <c r="E547" s="2"/>
-      <c r="F547" s="2"/>
-      <c r="H547" s="3"/>
+      <c r="F547" s="2">
+        <v>10</v>
+      </c>
+      <c r="G547" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H547" s="3" t="str">
+        <f t="shared" ref="H547:H563" si="9">CONCATENATE(G547,A547,",'",B547,"','",C547,"','",D547,"','",E547,"','",F547,"')")</f>
+        <v>insert into GOODS values(544,'참이슬','360','1200','','10')</v>
+      </c>
       <c r="I547" s="3"/>
       <c r="J547" s="3"/>
       <c r="K547" s="3"/>
       <c r="L547" s="3"/>
     </row>
     <row r="548" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H548" s="3"/>
+      <c r="A548" s="2">
+        <v>545</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C548" s="2">
+        <v>360</v>
+      </c>
+      <c r="D548" s="2">
+        <v>1200</v>
+      </c>
+      <c r="E548" s="2"/>
+      <c r="F548" s="2">
+        <v>10</v>
+      </c>
+      <c r="G548" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H548" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into GOODS values(545,'참소주','360','1200','','10')</v>
+      </c>
       <c r="I548" s="3"/>
       <c r="J548" s="3"/>
       <c r="K548" s="3"/>
       <c r="L548" s="3"/>
     </row>
     <row r="549" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H549" s="3"/>
+      <c r="A549" s="2">
+        <v>546</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C549" s="2">
+        <v>360</v>
+      </c>
+      <c r="D549" s="2">
+        <v>1250</v>
+      </c>
+      <c r="E549" s="2"/>
+      <c r="F549" s="2">
+        <v>10</v>
+      </c>
+      <c r="G549" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H549" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into GOODS values(546,'좋은데이석류','360','1250','','10')</v>
+      </c>
       <c r="I549" s="3"/>
       <c r="J549" s="3"/>
       <c r="K549" s="3"/>
       <c r="L549" s="3"/>
     </row>
     <row r="550" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H550" s="3"/>
+      <c r="A550" s="2">
+        <v>547</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C550" s="2">
+        <v>360</v>
+      </c>
+      <c r="D550" s="2">
+        <v>1250</v>
+      </c>
+      <c r="E550" s="2"/>
+      <c r="F550" s="2">
+        <v>10</v>
+      </c>
+      <c r="G550" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H550" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into GOODS values(547,'좋은데이블루베리','360','1250','','10')</v>
+      </c>
       <c r="I550" s="3"/>
       <c r="J550" s="3"/>
       <c r="K550" s="3"/>
       <c r="L550" s="3"/>
     </row>
     <row r="551" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H551" s="3"/>
+      <c r="A551" s="2">
+        <v>548</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C551" s="2">
+        <v>360</v>
+      </c>
+      <c r="D551" s="2">
+        <v>1250</v>
+      </c>
+      <c r="E551" s="2"/>
+      <c r="F551" s="2">
+        <v>10</v>
+      </c>
+      <c r="G551" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H551" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into GOODS values(548,'순하리','360','1250','','10')</v>
+      </c>
       <c r="I551" s="3"/>
       <c r="J551" s="3"/>
       <c r="K551" s="3"/>
       <c r="L551" s="3"/>
     </row>
     <row r="552" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H552" s="3"/>
+      <c r="A552" s="2">
+        <v>549</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C552" s="2">
+        <v>500</v>
+      </c>
+      <c r="D552" s="2">
+        <v>1600</v>
+      </c>
+      <c r="E552" s="2"/>
+      <c r="F552" s="2">
+        <v>10</v>
+      </c>
+      <c r="G552" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H552" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into GOODS values(549,'카스캔맥주','500','1600','','10')</v>
+      </c>
       <c r="I552" s="3"/>
       <c r="J552" s="3"/>
       <c r="K552" s="3"/>
       <c r="L552" s="3"/>
     </row>
     <row r="553" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H553" s="3"/>
+      <c r="A553" s="2">
+        <v>550</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C553" s="2">
+        <v>500</v>
+      </c>
+      <c r="D553" s="2">
+        <v>1100</v>
+      </c>
+      <c r="E553" s="2"/>
+      <c r="F553" s="2">
+        <v>10</v>
+      </c>
+      <c r="G553" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H553" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into GOODS values(550,'카스병맥주','500','1100','','10')</v>
+      </c>
       <c r="I553" s="3"/>
       <c r="J553" s="3"/>
       <c r="K553" s="3"/>
       <c r="L553" s="3"/>
     </row>
     <row r="554" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H554" s="3"/>
+      <c r="A554" s="2">
+        <v>551</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C554" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D554" s="2">
+        <v>3200</v>
+      </c>
+      <c r="E554" s="2"/>
+      <c r="F554" s="2">
+        <v>10</v>
+      </c>
+      <c r="G554" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H554" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into GOODS values(551,'카스피처맥주','1000','3200','','10')</v>
+      </c>
       <c r="I554" s="3"/>
       <c r="J554" s="3"/>
       <c r="K554" s="3"/>
       <c r="L554" s="3"/>
     </row>
     <row r="555" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H555" s="3"/>
+      <c r="A555" s="2">
+        <v>552</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C555" s="2">
+        <v>500</v>
+      </c>
+      <c r="D555" s="2">
+        <v>1600</v>
+      </c>
+      <c r="E555" s="2"/>
+      <c r="F555" s="2">
+        <v>10</v>
+      </c>
+      <c r="G555" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H555" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into GOODS values(552,'하이트캔맥주','500','1600','','10')</v>
+      </c>
       <c r="I555" s="3"/>
       <c r="J555" s="3"/>
       <c r="K555" s="3"/>
       <c r="L555" s="3"/>
     </row>
     <row r="556" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H556" s="3"/>
+      <c r="A556" s="2">
+        <v>553</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C556" s="2">
+        <v>500</v>
+      </c>
+      <c r="D556" s="2">
+        <v>1100</v>
+      </c>
+      <c r="E556" s="2"/>
+      <c r="F556" s="2">
+        <v>10</v>
+      </c>
+      <c r="G556" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H556" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into GOODS values(553,'하이트병맥주','500','1100','','10')</v>
+      </c>
       <c r="I556" s="3"/>
       <c r="J556" s="3"/>
       <c r="K556" s="3"/>
       <c r="L556" s="3"/>
     </row>
     <row r="557" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H557" s="3"/>
+      <c r="A557" s="2">
+        <v>554</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C557" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D557" s="2">
+        <v>3200</v>
+      </c>
+      <c r="E557" s="2"/>
+      <c r="F557" s="2">
+        <v>10</v>
+      </c>
+      <c r="G557" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H557" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into GOODS values(554,'하이트피처맥주','1000','3200','','10')</v>
+      </c>
       <c r="I557" s="3"/>
       <c r="J557" s="3"/>
       <c r="K557" s="3"/>
       <c r="L557" s="3"/>
     </row>
     <row r="558" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H558" s="3"/>
+      <c r="A558" s="2">
+        <v>555</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C558" s="2">
+        <v>750</v>
+      </c>
+      <c r="D558" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E558" s="2"/>
+      <c r="F558" s="2">
+        <v>10</v>
+      </c>
+      <c r="G558" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H558" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into GOODS values(555,'국순당막걸리','750','1500','','10')</v>
+      </c>
       <c r="I558" s="3"/>
       <c r="J558" s="3"/>
       <c r="K558" s="3"/>
       <c r="L558" s="3"/>
     </row>
     <row r="559" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H559" s="3"/>
+      <c r="A559" s="2">
+        <v>556</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C559" s="2">
+        <v>355</v>
+      </c>
+      <c r="D559" s="2">
+        <v>3300</v>
+      </c>
+      <c r="E559" s="2"/>
+      <c r="F559" s="2">
+        <v>10</v>
+      </c>
+      <c r="G559" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H559" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into GOODS values(556,'오비맥주','355','3300','','10')</v>
+      </c>
       <c r="I559" s="3"/>
       <c r="J559" s="3"/>
       <c r="K559" s="3"/>
       <c r="L559" s="3"/>
     </row>
     <row r="560" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H560" s="3"/>
+      <c r="A560" s="2">
+        <v>557</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C560" s="2">
+        <v>355</v>
+      </c>
+      <c r="D560" s="2">
+        <v>3300</v>
+      </c>
+      <c r="E560" s="2"/>
+      <c r="F560" s="2">
+        <v>10</v>
+      </c>
+      <c r="G560" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H560" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into GOODS values(557,'아사히','355','3300','','10')</v>
+      </c>
       <c r="I560" s="3"/>
       <c r="J560" s="3"/>
       <c r="K560" s="3"/>
       <c r="L560" s="3"/>
     </row>
-    <row r="561" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H561" s="3"/>
+    <row r="561" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A561" s="2">
+        <v>558</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C561" s="2">
+        <v>355</v>
+      </c>
+      <c r="D561" s="2">
+        <v>3300</v>
+      </c>
+      <c r="E561" s="2"/>
+      <c r="F561" s="2">
+        <v>10</v>
+      </c>
+      <c r="G561" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H561" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into GOODS values(558,'하이네켄','355','3300','','10')</v>
+      </c>
       <c r="I561" s="3"/>
       <c r="J561" s="3"/>
       <c r="K561" s="3"/>
       <c r="L561" s="3"/>
     </row>
-    <row r="562" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H562" s="3"/>
+    <row r="562" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A562" s="2">
+        <v>559</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C562" s="2">
+        <v>355</v>
+      </c>
+      <c r="D562" s="2">
+        <v>3300</v>
+      </c>
+      <c r="E562" s="2"/>
+      <c r="F562" s="2">
+        <v>10</v>
+      </c>
+      <c r="G562" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H562" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into GOODS values(559,'버드와이저','355','3300','','10')</v>
+      </c>
       <c r="I562" s="3"/>
       <c r="J562" s="3"/>
       <c r="K562" s="3"/>
       <c r="L562" s="3"/>
     </row>
-    <row r="563" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H563" s="3"/>
+    <row r="563" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A563" s="2">
+        <v>560</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C563" s="2">
+        <v>355</v>
+      </c>
+      <c r="D563" s="2">
+        <v>3300</v>
+      </c>
+      <c r="E563" s="2"/>
+      <c r="F563" s="2">
+        <v>10</v>
+      </c>
+      <c r="G563" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H563" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into GOODS values(560,'칭따오','355','3300','','10')</v>
+      </c>
       <c r="I563" s="3"/>
       <c r="J563" s="3"/>
       <c r="K563" s="3"/>
       <c r="L563" s="3"/>
     </row>
-    <row r="564" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H564" s="3"/>
+    <row r="564" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A564" s="2">
+        <v>561</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C564" s="2">
+        <v>355</v>
+      </c>
+      <c r="D564" s="2">
+        <v>3300</v>
+      </c>
+      <c r="E564" s="2"/>
+      <c r="F564" s="2">
+        <v>10</v>
+      </c>
+      <c r="G564" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H564" s="3" t="str">
+        <f t="shared" ref="H564" si="10">CONCATENATE(G564,A564,",'",B564,"','",C564,"','",D564,"','",E564,"','",F564,"')")</f>
+        <v>insert into GOODS values(561,'기네스','355','3300','','10')</v>
+      </c>
       <c r="I564" s="3"/>
       <c r="J564" s="3"/>
       <c r="K564" s="3"/>
       <c r="L564" s="3"/>
     </row>
-    <row r="565" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H565" s="3"/>
+    <row r="565" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A565" s="2">
+        <v>562</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C565" s="2">
+        <v>355</v>
+      </c>
+      <c r="D565" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F565" s="2">
+        <v>10</v>
+      </c>
+      <c r="G565" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H565" s="3" t="str">
+        <f t="shared" ref="H565" si="11">CONCATENATE(G565,A565,",'",B565,"','",C565,"','",D565,"','",E565,"','",F565,"')")</f>
+        <v>insert into GOODS values(562,'밀러','355','3300','','10')</v>
+      </c>
       <c r="I565" s="3"/>
       <c r="J565" s="3"/>
       <c r="K565" s="3"/>
       <c r="L565" s="3"/>
     </row>
-    <row r="566" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H566" s="3"/>
       <c r="I566" s="3"/>
       <c r="J566" s="3"/>
       <c r="K566" s="3"/>
       <c r="L566" s="3"/>
     </row>
-    <row r="567" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H567" s="3"/>
       <c r="I567" s="3"/>
       <c r="J567" s="3"/>
       <c r="K567" s="3"/>
       <c r="L567" s="3"/>
     </row>
-    <row r="568" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H568" s="3"/>
       <c r="I568" s="3"/>
       <c r="J568" s="3"/>
       <c r="K568" s="3"/>
       <c r="L568" s="3"/>
     </row>
-    <row r="569" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H569" s="3"/>
       <c r="I569" s="3"/>
       <c r="J569" s="3"/>
       <c r="K569" s="3"/>
       <c r="L569" s="3"/>
     </row>
-    <row r="570" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H570" s="3"/>
       <c r="I570" s="3"/>
       <c r="J570" s="3"/>
